--- a/Docs/Kiểm thử chức năng..xlsx
+++ b/Docs/Kiểm thử chức năng..xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DoAn3_10122277_TestAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DoAn3-1012227_12522T.1\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791310E9-C042-42E1-B4B1-556BADAA4F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAE0EDB-A0C9-4317-A5DD-FF7879EA2094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tìm kiếm " sheetId="2" r:id="rId1"/>
-    <sheet name="Quên mật khẩu" sheetId="3" r:id="rId2"/>
-    <sheet name="Đăng Ký" sheetId="1" r:id="rId3"/>
-    <sheet name="Đăng nhập" sheetId="4" r:id="rId4"/>
-    <sheet name="Giỏ hàng" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="7" r:id="rId6"/>
+    <sheet name="Đăng Ký" sheetId="1" r:id="rId1"/>
+    <sheet name="Đăng nhập" sheetId="4" r:id="rId2"/>
+    <sheet name="Tìm kiếm " sheetId="2" r:id="rId3"/>
+    <sheet name="Giỏ hàng" sheetId="5" r:id="rId4"/>
+    <sheet name="Trang chủ " sheetId="7" r:id="rId5"/>
+    <sheet name="Thanh toán" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="352">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -390,9 +390,6 @@
     <t xml:space="preserve">Chức năng tìm kiếm </t>
   </si>
   <si>
-    <t>TC7-01</t>
-  </si>
-  <si>
     <t>Nhập từ khóa tìm kiếm hợp lệ</t>
   </si>
   <si>
@@ -405,13 +402,7 @@
 B4: Hiển thị giao diện kết quả tìm kiếm với nội dung tìm kiếm </t>
   </si>
   <si>
-    <t>TC7-02</t>
-  </si>
-  <si>
     <t xml:space="preserve">Không nhập từ khóa tìm kiếm </t>
-  </si>
-  <si>
-    <t>TC7-03</t>
   </si>
   <si>
     <t>Nhập từ khóa tìm kiếm không có
@@ -426,44 +417,23 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>TC7-04</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tìm kiếm với ký tự đặc biệt </t>
   </si>
   <si>
-    <t>TC7-05</t>
-  </si>
-  <si>
     <t>Tìm kiếm với chuỗi ký tự dài</t>
   </si>
   <si>
-    <t>TC7-06</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nhập từ khóa không dấu </t>
   </si>
   <si>
-    <t>TC7-07</t>
-  </si>
-  <si>
     <t>Nhập từ khóa 1 ký tự</t>
-  </si>
-  <si>
-    <t>TC7-08</t>
   </si>
   <si>
     <t>Nhập khoảng trắng trước và sau
  từ khóa</t>
   </si>
   <si>
-    <t>TC7-09</t>
-  </si>
-  <si>
     <t>Nhập nhiều khoảng trắng giữa các từ</t>
-  </si>
-  <si>
-    <t>TC7-10</t>
   </si>
   <si>
     <t>B1 :Hiển thị giao diện Trang chủ.
@@ -471,25 +441,13 @@
 B4: Hiển thị giao diện Thông tin tài khoản.</t>
   </si>
   <si>
-    <t>TC7-11</t>
-  </si>
-  <si>
     <t>B1 :Hiển thị giao diện Trang chủ.
 B2: Hiển thị giao diện Đăng nhập.
 B4: Hiển thị giao diện Trang chủ</t>
   </si>
   <si>
-    <t>TC7-12</t>
-  </si>
-  <si>
     <t>Kiểm tra link "Trang chủ"
  có hoạt động đúng không?</t>
-  </si>
-  <si>
-    <t>TC7-13</t>
-  </si>
-  <si>
-    <t>TC7-14</t>
   </si>
   <si>
     <t>Kiểm tra Back to Top Button có hoạt động không?</t>
@@ -686,55 +644,15 @@
     <t>TC3-01</t>
   </si>
   <si>
-    <t>Nhập email đã đăng kí hệ thống</t>
-  </si>
-  <si>
-    <t>Người dùng đã đăng ký tài 
-khoản hệ thống</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Hiển thị giao diện Trang chủ.
-B2: Hiển thị giao diện Đăng nhập.
-B3: Hiển thị giao diện Quên mật khẩu.
-B5: Hệ thống thông báo "Một liên kết thay đổi mật khẩu đã được gửi vào email của bạn".
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Hiển thị giao diện Trang chủ.
-B2: Hiển thị giao diện Đăng nhập.
-B3: Hiển thị giao diện Quên mật khẩu.
-B5: Hiển thị giao diện Đăng nhập.
-</t>
-  </si>
-  <si>
     <t>TC3-02</t>
   </si>
   <si>
-    <t>Bỏ trống email</t>
-  </si>
-  <si>
     <t>TC3-03</t>
   </si>
   <si>
-    <t>Nhập sai Emai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Hiển thị giao diện Trang chủ.
-B2: Hiển thị giao diện Đăng nhập.
-B3: Hiển thị giao diện Quên mật khẩu.
-B5: Hệ thống thông báo "Không tìm thấy tài khoản tương ứng với email này"
-</t>
-  </si>
-  <si>
     <t>TC3-04</t>
   </si>
   <si>
-    <t>Nhập Email chưa đăng ký hệ thống.</t>
-  </si>
-  <si>
-    <t>Người dùng ở giao diện Quên mật khẩu</t>
-  </si>
-  <si>
     <t>TC3-05</t>
   </si>
   <si>
@@ -744,89 +662,25 @@
     <t>Người dùng đang ở giao diện Đăng nhập.</t>
   </si>
   <si>
-    <t>B1: Hiển thị trang chủ Combi 
-B2: Hiển thị giao diện Đăng nhập.
-B3: Hiển thị  giao diện Đăng ký.</t>
-  </si>
-  <si>
     <t>TC3-06</t>
   </si>
   <si>
     <t xml:space="preserve">Kiểm tra link 'Đăng nhập' có hoạt động không </t>
   </si>
   <si>
-    <t>B1: Hiển thị trang chủ Combi 
-B2: Hiển thị giao diện Đăng nhập.
-B3: Hiển thị lại giao diện Đăng nhập.</t>
-  </si>
-  <si>
     <t>TC3-07</t>
   </si>
   <si>
     <t xml:space="preserve">Kiểm tra  'Trang chủ' có hoạt động không </t>
   </si>
   <si>
-    <t>B1: Hiển thị trang chủ Combi 
-B2: Hiển thị giao diện Đăng nhập.
-B3: Hiển thị  giao diện Trang chủ</t>
-  </si>
-  <si>
     <t>TC3-08</t>
   </si>
   <si>
     <t>Kiểm thử nút 'Đăng ký" ở giao diện Đăng nhập</t>
   </si>
   <si>
-    <t>B1: Hiển thị trang chủ Combi 
-B2: Hiển thị giao diện Đăng nhập.
-B3: Hiển thị giao diện Đăng ký.</t>
-  </si>
-  <si>
     <t>TC3-09</t>
-  </si>
-  <si>
-    <t>Kiểm thử nút 'Hủy" ở giao diện Đăng nhập</t>
-  </si>
-  <si>
-    <t>B1: Hiển thị trang chủ Combi 
-B2: Hiển thị giao diện Đăng nhập.
-B3: Hiển thị giao diện Đăng nhập.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng nhập.
-B3: Chọn "Quên mật khẩu"
-B4: Nhập Email: hoangminhnguyet10122277@gmail.com
-B5: Ấn Gửi.
-</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng nhập.
-B3: Chọn "Quên mật khẩu"
-B4: Không nhập email
-B5: Ấn Gửi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Hiển thị giao diện Trang chủ.
-B2: Hiển thị giao diện Đăng nhập.
-B3: Hiển thị giao diện Quên mật khẩu.
-B4: Hệ thống thông báo "Vui lòng nhập Email"
-</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng nhập.
-B3: Chọn "Quên mật khẩu"
-B4 Nhập email: hoangminhnguyet@gmail.com
-B5: Ấn Gửi.</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng nhập.
-B3: Chọn "Quên mật khẩu"
-B4 Nhập email: hoangminhnguyet1424@gmail.com
-B5: Ấn Gửi.</t>
   </si>
   <si>
     <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
@@ -850,36 +704,6 @@
     <t>B1: Truy cập vào website https://sachtaodan.vn/
 B2: Chọn chức năng Đăng nhập.
 B3: Nhấn nút Đăng ký</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng nhập.
-B3: Nhấn nút Hủy</t>
-  </si>
-  <si>
-    <t>B1: Hiển thị trang chủ Sách Tao Đàn 
-B2: Hiển thị giao diện Đăng nhập.
-B3: Hiển thị  giao diện Đăng ký.</t>
-  </si>
-  <si>
-    <t>B1: Hiển thị trang chủ Sách Tao Đàn  
-B2: Hiển thị giao diện Đăng nhập.
-B3: Hiển thị lại giao diện Đăng nhập.</t>
-  </si>
-  <si>
-    <t>B1: Hiển thị trang chủ Sách Tao Đàn  
-B2: Hiển thị giao diện Đăng nhập.
-B3: Hiển thị  giao diện Trang chủ</t>
-  </si>
-  <si>
-    <t>B1: Hiển thị trang chủ Sách Tao Đàn  
-B2: Hiển thị giao diện Đăng nhập.
-B3: Hiển thị giao diện Đăng ký.</t>
-  </si>
-  <si>
-    <t>B1: Hiển thị trang chủ Sách Tao Đàn  
-B2: Hiển thị giao diện Đăng nhập.
-B3: Hiển thị giao diện Đăng nhập.</t>
   </si>
   <si>
     <t>B1:Hiển thị trang chủ Sách Tao Đàn  
@@ -1296,174 +1120,490 @@
     <t>TC2-17</t>
   </si>
   <si>
-    <t>TC-01</t>
-  </si>
-  <si>
-    <t>TC-02</t>
-  </si>
-  <si>
-    <t>TC-03</t>
-  </si>
-  <si>
-    <t>TC-04</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://combi.com.vn/
-B2: Chọn Tài khoản của tôi
-B3: Chọn Xem chi tiết
-B4: Ấn link Trang chủ.</t>
-  </si>
-  <si>
     <t>Kiểm tra nút Tiếp tục mua hàng có hoạt động không?</t>
   </si>
   <si>
     <t>Người dùng đang ở giao diện giỏ hàng.</t>
   </si>
   <si>
+    <t>Kiểm tra nút Tài khoản có hoạt động không?</t>
+  </si>
+  <si>
+    <t>Kiểm tra Danh mục Thông tin thanh toán có hoạt động đúng hay không?</t>
+  </si>
+  <si>
+    <t>Kiểm tra nút Sản phẩm yêu thích có hoạt động đúng hay không?</t>
+  </si>
+  <si>
+    <t>Kiểm tra nút X có hoạt động đúng hay không?</t>
+  </si>
+  <si>
+    <t>Kiểm tra nút 🔼 có hoạt động đúng hay không?</t>
+  </si>
+  <si>
+    <t>Kiểm tra nút 🔽 có hoạt động đúng hay không?</t>
+  </si>
+  <si>
+    <t>Kiểm tra nút Thanh toán ngay có hoạt động đúng hay không?</t>
+  </si>
+  <si>
+    <t>Kiểm tra thanh tìm kiếm có hoạt động không.</t>
+  </si>
+  <si>
+    <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
+B2:Hiển thị giao diện Trang chủ.
+B3:Hiển thị giao diện Giỏ hàng.
+B4: Hiển thị giao diện Trang chủ.</t>
+  </si>
+  <si>
     <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn Giỏ hàng 
-B3: Chọn Tiếp tục mua hàng 
+B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
+B3: Chọn giỏ hàng.
+B4: Chọn Tiếp tục mua hàng.
 </t>
   </si>
   <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
+B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
+B3: Chọn giỏ hàng.
+B4: Chọn THÔNG TIN THANH TOÁN.
+</t>
+  </si>
+  <si>
     <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
-B2:Hiển thị giao diện Giỏ hàng 
-B5:Hiển thị giao diện Trang chủ.</t>
-  </si>
-  <si>
-    <t>Kiểm tra nút Tài khoản có hoạt động không?</t>
+B2:Hiển thị giao diện Trang chủ.
+B3:Hiển thị giao diện Giỏ hàng.
+B4: Hiển thị giao diện THÔNG TIN THANH TOÁN.</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://sachtaodan.vn/
+B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
+B3: Chọn giỏ hàng.
+B4: Chọn ❤</t>
+  </si>
+  <si>
+    <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
+B2:Hiển thị giao diện Trang chủ.
+B3:Hiển thị giao diện Giỏ hàng.
+B4: Hiển thị giao diện  ❤</t>
+  </si>
+  <si>
+    <t>B1:Hiển thị trang chủ Sách Tao Đàn
+B2: Hiển thị giao diện Trang chủ. 
+B3:Hiển thị giao diện Giỏ hàng 
+B4: Thông báo lỗi "Oops ! Trang bạn tìm kiếm không đúng".</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://sachtaodan.vn/
+B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
+B3: Chọn giỏ hàng.
+B4: Chọn X.</t>
+  </si>
+  <si>
+    <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
+B2:Hiển thị giao diện Trang chủ.
+B3:Hiển thị giao diện Giỏ hàng.
+B4: Xóa sản phẩm đã chọn.</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://sachtaodan.vn/
+B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
+B3: Chọn giỏ hàng.
+B4: Chọn 🔼.</t>
+  </si>
+  <si>
+    <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
+B2:Hiển thị giao diện Trang chủ.
+B3:Hiển thị giao diện Giỏ hàng.
+B4: Sau mỗi lần ấn số lượng sản phẩm tăng lên một đến khi hết hàng trong kho.</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://sachtaodan.vn/
+B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
+B3: Chọn giỏ hàng.
+B4: Chọn 🔽</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://sachtaodan.vn/
+B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
+B3: Chọn giỏ hàng.
+B4: Chọn Thanh toán ngay.</t>
+  </si>
+  <si>
+    <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
+B2:Hiển thị giao diện Trang chủ.
+B3:Hiển thị giao diện Giỏ hàng.
+B4: Sau mỗi lần ấn số lượng sản phẩm giảm xuống 1 và&gt;=1.</t>
+  </si>
+  <si>
+    <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
+B2:Hiển thị giao diện Trang chủ.
+B3:Hiển thị giao diện Giỏ hàng.
+B4:Hiển thị giao diện Thanh toán ngay.</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://sachtaodan.vn/
+B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
+B3: Chọn giỏ hàng.
+B4: Chọn Tài khoản.</t>
+  </si>
+  <si>
+    <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
+B2:Hiển thị giao diện Trang chủ.
+B3:Hiển thị giao diện Giỏ hàng.
+B4: Hiển thị giao diện Tài khoản.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra link " Thoát" có hoạt động không </t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://sachtaodan.vn/
+B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
+B3: Chọn giỏ hàng.
+B4: Chọn Thoát.</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://sachtaodan.vn/
+B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
+B3: Chọn giỏ hàng.
+B4: Chọn Trang chủ.</t>
   </si>
   <si>
     <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn Giỏ hàng
-B3: Chọn Tài khoản 
+B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
+B3: Chọn giỏ hàng.
+B4: Nhập từ khóa tìm kiếm "Sách hay"  vào ô tìm kiếm.
+B5: Ấn chọn icon Tìm kiếm hoặc ấn enter. </t>
+  </si>
+  <si>
+    <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
+B2:Hiển thị giao diện Trang chủ.
+B3:Hiển thị giao diện Giỏ hàng.
+B5: Hiển thị giao diện kết quả tìm kiếm với nội dung tìm kiếm (18 cuốn sách được tìm thấy).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra thông tin liên lạc google có hoạt động không? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
+B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
+B3: Chọn giỏ hàng.
+B4: Chọn icon Google.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">B1:Hiển thị trang chủ Sách Tao Đàn. 
-B2:Hiển thị giao diện Giỏ hàng 
-B5:Hiển thị giao diện Tài khoản </t>
-  </si>
-  <si>
-    <t>TC-05</t>
-  </si>
-  <si>
-    <t>TC-06</t>
-  </si>
-  <si>
-    <t>TC-07</t>
-  </si>
-  <si>
-    <t>TC-08</t>
-  </si>
-  <si>
-    <t>TC-09</t>
-  </si>
-  <si>
-    <t>TC-10</t>
-  </si>
-  <si>
-    <t>Kiểm tra Danh mục Thông tin thanh toán có hoạt động đúng hay không?</t>
+    <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
+B2:Hiển thị giao diện Trang chủ.
+B3:Hiển thị giao diện Giỏ hàng.
+B4: Hiển thị giao diện Đăng nhập gmail.</t>
+  </si>
+  <si>
+    <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
+B2:Hiển thị giao diện Trang chủ.
+B3:Hiển thị giao diện Giỏ hàng.
+B4: Hiển thị giao diện Giỏ hàng.</t>
+  </si>
+  <si>
+    <t>Kiểm tra danh mục BÌA CỨNG GIỚI HẠN có hoạt động đúng không?</t>
   </si>
   <si>
     <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn Giỏ hàng 
-B3: Chọn Thông tin thanh toán.
+B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
+B3: Chọn giỏ hàng.
+B4: Chọn danh mục BÌA CỨNG GIỚI HẠN.
 </t>
   </si>
   <si>
-    <t>Kiểm tra nút Sản phẩm yêu thích có hoạt động đúng hay không?</t>
+    <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
+B2:Hiển thị giao diện Trang chủ.
+B3:Hiển thị giao diện Giỏ hàng.
+B4: Hiển thị giao diện BÌA CỨNG GIỚI HẠN( 9 quyển sách).</t>
+  </si>
+  <si>
+    <t>Kiểm tra Đăng ký thành viên có hoạt động hay không?</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://sachtaodan.vn/
+B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
+B3: Chọn giỏ hàng.
+B4: Chọn Đăng ký thành viên.</t>
+  </si>
+  <si>
+    <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
+B2:Hiển thị giao diện Trang chủ.
+B3:Hiển thị giao diện Giỏ hàng.
+B4: Hiển thị giao diện Đăng ký thành viên.</t>
+  </si>
+  <si>
+    <t>TC3-10</t>
+  </si>
+  <si>
+    <t>TC3-11</t>
+  </si>
+  <si>
+    <t>TC3-12</t>
+  </si>
+  <si>
+    <t>TC3-13</t>
+  </si>
+  <si>
+    <t>TC3-14</t>
+  </si>
+  <si>
+    <t>TC4-05</t>
+  </si>
+  <si>
+    <t>TC4-06</t>
+  </si>
+  <si>
+    <t>TC4-07</t>
+  </si>
+  <si>
+    <t>TC4-08</t>
+  </si>
+  <si>
+    <t>TC4-09</t>
+  </si>
+  <si>
+    <t>TC5-05</t>
+  </si>
+  <si>
+    <t>TC5-06</t>
+  </si>
+  <si>
+    <t>TC5-07</t>
+  </si>
+  <si>
+    <t>TC5-08</t>
+  </si>
+  <si>
+    <t>TC5-09</t>
+  </si>
+  <si>
+    <t>TC5-10</t>
+  </si>
+  <si>
+    <t>TC5-11</t>
+  </si>
+  <si>
+    <t>TC5-12</t>
+  </si>
+  <si>
+    <t>TC5-13</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở giao diện Trang chủ</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi ấn vào 1 sản phẩm chuyển sang giao diện chi tiết sản phẩm không?</t>
+  </si>
+  <si>
+    <t>Kiểm tra danh mục SÁCH TAO ĐÀN có hoạt dộng hay không?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào websitehttps://sachtaodan.vn/
+B2: Chọn Đăng nhập nếu đã đăng ký tài khoản hoặc đăng kí nếu chưa từng đăng ký hệ thống.
+B3: Chọn SÁCH TAO ĐÀN.
+</t>
+  </si>
+  <si>
+    <t>B1: Hiển thị trang chủ Combi 
+B3: Hiển thị giao diện SÁCH TAO ĐÀN( Hiển thị 1 - 12/86 sản phẩm).</t>
+  </si>
+  <si>
+    <t>Kiểm tra thanh tìm kiếm có hoạt động không?</t>
   </si>
   <si>
     <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn Giỏ hàng 
-B3: Chọn ❤
-</t>
-  </si>
-  <si>
-    <t>Kiểm tra nút X có hoạt động đúng hay không?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn Giỏ hàng 
-B3: Chọn X
-</t>
+B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
+B3: Nhập từ khóa tìm kiếm "Sách hay"  vào ô tìm kiếm.
+B4: Ấn chọn icon Tìm kiếm hoặc ấn enter. </t>
   </si>
   <si>
     <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
-B2:Hiển thị giao diện Giỏ hàng 
-B3:Hiển thị giao diện Trang chủ.</t>
+B2:Hiển thị giao diện Trang chủ.
+B3: Hiển thị giao diện kết quả tìm kiếm với nội dung tìm kiếm (18 cuốn sách được tìm thấy).</t>
+  </si>
+  <si>
+    <t>Kiểm tra giỏ hàng có hoạt động hay không?</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://sachtaodan.vn/
+B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
+B3: Chọn giỏ hàng.</t>
   </si>
   <si>
     <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
-B2:Hiển thị giao diện Giỏ hàng 
-B3:Hiển thị giao diện Thông tin thanh toán.</t>
+B2:Hiển thị giao diện Trang chủ.
+B3: Hiển thị giao diện giỏ hàng.</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://sachtaodan.vn/
+B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
+B3: Chọn Tài khoản.</t>
   </si>
   <si>
     <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
-B2:Hiển thị giao diện Giỏ hàng 
-B3:Hiển thị giao diện Sản phẩm yêu thích.</t>
+B2:Hiển thị giao diện Trang chủ.
+B3: Hiển thị giao diện Tài khoản.</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://sachtaodan.vn/
+B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
+B3: Chọn Thoát.</t>
   </si>
   <si>
     <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
-B2:Hiển thị giao diện Giỏ hàng 
+B2:Hiển thị giao diện Trang chủ.
+B3: Hiển thị giao diện Trang chủ.</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://sachtaodan.vn/
+B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
+B3: Chọn ❤</t>
+  </si>
+  <si>
+    <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
+B2:Hiển thị giao diện Trang chủ.
+B3: Hiển thị giao diện  ❤</t>
+  </si>
+  <si>
+    <t>B1:Hiển thị trang chủ Sách Tao Đàn
+B2: Hiển thị giao diện Trang chủ. 
 B3: Thông báo lỗi "Oops ! Trang bạn tìm kiếm không đúng".</t>
   </si>
   <si>
-    <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
-B2:Hiển thị giao diện Giỏ hàng 
-B3: Xóa sản phẩm đã X.</t>
-  </si>
-  <si>
-    <t>Kiểm tra nút 🔼 có hoạt động đúng hay không?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn Giỏ hàng 
-B3: Chọn 🔼
-</t>
-  </si>
-  <si>
-    <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
-B2:Hiển thị giao diện Giỏ hàng 
-B3: Sau mỗi lần ấn số lượng sản phẩm tăng lên một đến khi hết hàng trong kho.</t>
-  </si>
-  <si>
-    <t>Kiểm tra nút 🔽 có hoạt động đúng hay không?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn Giỏ hàng 
-B3: Chọn 🔽
-</t>
-  </si>
-  <si>
-    <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
-B2:Hiển thị giao diện Giỏ hàng 
-B3: Sau mỗi lần ấn số lượng sản phẩm giảm xuống 1 và&gt;=1.</t>
-  </si>
-  <si>
-    <t>Kiểm tra nút Thanh toán ngay có hoạt động đúng hay không?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn Giỏ hàng 
-B3: Chọn Thanh toán ngay.
-</t>
-  </si>
-  <si>
-    <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
-B2:Hiển thị giao diện Giỏ hàng 
-B3: Hiển thị giao diện Thanh toán ngay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiểm tra link " Thoát' có hoạt động không </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn Giỏ hàng
-B3: Chọn Thoát
-</t>
+    <t>Kiểm tra danh mục "Liên hệ mua sách" có hoạt động hay không?</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://sachtaodan.vn/
+B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
+B3: Chọn "Liên hệ mua sách".</t>
+  </si>
+  <si>
+    <t>B1: Hiển thị trang chủ Combi 
+B2: Hiển thị  giao diện Trang chủ.
+B3: Hiển thị giao diện Liên hệ mua sách.</t>
+  </si>
+  <si>
+    <t>Kiểm tra link "Xem tất cả" có hoạt động không?</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://sachtaodan.vn/
+B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
+B3: Chọn "Xem tất cả".</t>
+  </si>
+  <si>
+    <t>B1: Hiển thị trang chủ Combi 
+B2: Hiển thị  giao diện Trang chủ.
+B3: Hiển thị giao diện Sách hay sách mới.</t>
+  </si>
+  <si>
+    <t>Kiểm tra "Xem thêm" ở phần Tin tức có hoạt động không?</t>
+  </si>
+  <si>
+    <t>B1: Hiển thị trang chủ Combi 
+B2: Hiển thị  giao diện Trang chủ.
+B3: Hiển thị thêm mục Bìa sách.</t>
+  </si>
+  <si>
+    <t>B1: Hiển thị trang chủ Combi 
+B2: Hiển thị  giao diện Trang chủ.
+B3: Không hiển thị thêm.</t>
+  </si>
+  <si>
+    <t>B1: Hiển thị trang chủ Combi 
+B2: Hiển thị  giao diện Trang chủ.
+B3: Hiển thị giao diện Chi tiết sản phẩm "Trùng Hưng Thuở Ấy [Bìa mềm] - Tô Như".</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://sachtaodan.vn/
+B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
+B3: Chọn quyển" Trùng Hưng Thuở Ấy [Bìa mềm] - Tô Như".</t>
+  </si>
+  <si>
+    <t>Kiểm tra nút xem nhanh có hoạt động hay không?</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://sachtaodan.vn/
+B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
+B3: Chọn xem nhanh quyển" Trùng Hưng Thuở Ấy [Bìa mềm] - Tô Như".</t>
+  </si>
+  <si>
+    <t>B1: Hiển thị trang chủ Combi 
+B2: Hiển thị  giao diện Trang chủ.
+B3: Hiển thị giao diện Xem nhanh sản phẩm "Trùng Hưng Thuở Ấy [Bìa mềm] - Tô Như".</t>
+  </si>
+  <si>
+    <t>Kiểm tra "Xem thêm" ở phần Danh mục sách có hoạt 
+động không?</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://sachtaodan.vn/
+B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
+B3: Chọn "Xem thêm" ở Tin tức.</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://sachtaodan.vn/
+B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
+B3: Chọn "Xem thêm" phần Danh mục sách.</t>
+  </si>
+  <si>
+    <t>B1: Hiển thị trang chủ Combi 
+B2: Hiển thị  giao diện Trang chủ.
+B3: Hiển thị thêm mục "Văn Chương Thế Giới", "Giải Goncourt", Văn Chương Kinh Điển", Việt Nam Đương Đại", Sách Thiếu Nhi".</t>
+  </si>
+  <si>
+    <t>Kiểm tra mục "Dịch vụ tiện ích" có hoạt động hay không?</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://sachtaodan.vn/
+B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
+B3: Chọn "Dịch vụ tiện ích".</t>
+  </si>
+  <si>
+    <t>B1: Hiển thị trang chủ Combi 
+B2: Hiển thị  giao diện Trang chủ.
+B3: Hiển thị giao diện Điều khiển dịch vụ.</t>
+  </si>
+  <si>
+    <t>TC4-10</t>
+  </si>
+  <si>
+    <t>TC4-11</t>
+  </si>
+  <si>
+    <t>TC4-12</t>
+  </si>
+  <si>
+    <t>TC4-13</t>
+  </si>
+  <si>
+    <t>TC4-14</t>
+  </si>
+  <si>
+    <t>TC4-15</t>
+  </si>
+  <si>
+    <t>TC4-16</t>
+  </si>
+  <si>
+    <t>TC4-17</t>
+  </si>
+  <si>
+    <t>TC4-18</t>
+  </si>
+  <si>
+    <t>TC5-01</t>
+  </si>
+  <si>
+    <t>TC5-02</t>
+  </si>
+  <si>
+    <t>TC5-03</t>
+  </si>
+  <si>
+    <t>TC5-04</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1649,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1520,12 +1660,6 @@
       <patternFill patternType="solid">
         <fgColor indexed="18"/>
         <bgColor indexed="32"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1542,7 +1676,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA3A3"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1817,7 +1951,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1865,21 +1999,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1887,21 +2036,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{6EF5C705-D68B-4323-9104-7B3EB48FFC04}"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -1981,78 +2121,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2064,111 +2132,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4861560</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1181099</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F9B6911-2E4D-4DCB-B983-D0FECDA7F8F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17998440" y="6377940"/>
-          <a:ext cx="4732020" cy="1965959"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4838701</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>2186940</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BCDC871-332F-4560-802E-D2BCE0E31379}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17868901" y="8496300"/>
-          <a:ext cx="4838700" cy="2133600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2433,934 +2396,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57977689-3AE3-4B2E-A947-3358541BF278}">
-  <dimension ref="A1:I23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="18.33203125" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="27.109375" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="5"/>
-      <c r="B1" s="11"/>
-      <c r="D1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="14">
-        <v>45516</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="14">
-        <v>41985</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="12"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="19"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="20">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="19"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="20">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="11"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="13"/>
-      <c r="E8" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.399999999999999">
-      <c r="A9" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="129.6">
-      <c r="A10" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" spans="1:9" ht="129.6">
-      <c r="A11" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" spans="1:9" ht="115.2">
-      <c r="A12" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" spans="1:9" ht="129.6">
-      <c r="A13" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-    </row>
-    <row r="14" spans="1:9" ht="129.6">
-      <c r="A14" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-    </row>
-    <row r="15" spans="1:9" ht="129.6">
-      <c r="A15" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-    </row>
-    <row r="16" spans="1:9" ht="115.2">
-      <c r="A16" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-    </row>
-    <row r="17" spans="1:9" ht="129.6">
-      <c r="A17" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-    </row>
-    <row r="18" spans="1:9" ht="129.6">
-      <c r="A18" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-    </row>
-    <row r="19" spans="1:9" ht="115.2">
-      <c r="A19" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="115.2">
-      <c r="A20" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="115.2">
-      <c r="A21" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="115.2">
-      <c r="A22" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="129.6">
-      <c r="A23" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G23" xr:uid="{53FB3CC1-77D4-4E2D-BC39-D97339493EF7}">
-      <formula1>"Pass,Fail"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF9C0F1-C40D-4ACD-8930-51E1A601E63E}">
-  <dimension ref="A1:I18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="17.6640625" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="30.88671875" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" customWidth="1"/>
-    <col min="5" max="5" width="25.21875" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="5"/>
-      <c r="B1" s="11"/>
-      <c r="D1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="14">
-        <v>45516</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="14">
-        <v>41985</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="12"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="19"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="20">
-        <v>9</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="19"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="20">
-        <v>8</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="11"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="13"/>
-      <c r="E8" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.399999999999999">
-      <c r="A9" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="144">
-      <c r="A10" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" spans="1:9" ht="129.6">
-      <c r="A11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="144">
-      <c r="A12" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" spans="1:9" ht="144">
-      <c r="A13" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="86.4">
-      <c r="A14" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="100.8">
-      <c r="A15" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="100.8">
-      <c r="A16" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="86.4">
-      <c r="A17" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="86.4">
-      <c r="A18" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G18">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G18">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G18" xr:uid="{0C7429CF-8591-4A5A-B04C-E7E5233FEC27}">
-      <formula1>"Pass,Fail"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:G35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3394,8 +2434,8 @@
       <c r="A2" s="2"/>
       <c r="B2" s="9"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="2"/>
@@ -3408,10 +2448,10 @@
     <row r="3" spans="1:13">
       <c r="A3" s="5"/>
       <c r="B3" s="11"/>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="35"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="12" t="s">
         <v>2</v>
       </c>
@@ -3427,10 +2467,10 @@
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="35"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
@@ -3446,10 +2486,10 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="14">
         <v>45516</v>
       </c>
@@ -3464,10 +2504,10 @@
     <row r="6" spans="1:13">
       <c r="A6" s="3"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="35"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="14">
         <v>41985</v>
       </c>
@@ -3483,10 +2523,10 @@
       <c r="A7" s="3"/>
       <c r="B7" s="2"/>
       <c r="C7" s="18"/>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="35"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="12"/>
       <c r="H7" s="2"/>
       <c r="I7" s="6"/>
@@ -3592,10 +2632,10 @@
         <v>72</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>23</v>
@@ -3603,7 +2643,7 @@
       <c r="I12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="29"/>
+      <c r="J12" s="35"/>
     </row>
     <row r="13" spans="1:13" ht="144">
       <c r="A13" s="27" t="s">
@@ -3619,10 +2659,10 @@
         <v>71</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>23</v>
@@ -3630,7 +2670,7 @@
       <c r="I13" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="30"/>
+      <c r="J13" s="36"/>
     </row>
     <row r="14" spans="1:13" ht="129.6">
       <c r="A14" s="27" t="s">
@@ -3646,10 +2686,10 @@
         <v>73</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="G14" s="27" t="s">
         <v>23</v>
@@ -3657,7 +2697,7 @@
       <c r="I14" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="30"/>
+      <c r="J14" s="36"/>
     </row>
     <row r="15" spans="1:13" ht="144">
       <c r="A15" s="27" t="s">
@@ -3673,10 +2713,10 @@
         <v>74</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>23</v>
@@ -3684,7 +2724,7 @@
       <c r="I15" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="30"/>
+      <c r="J15" s="36"/>
     </row>
     <row r="16" spans="1:13" ht="129.6">
       <c r="A16" s="27" t="s">
@@ -3700,10 +2740,10 @@
         <v>75</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="G16" s="27" t="s">
         <v>23</v>
@@ -3711,7 +2751,7 @@
       <c r="I16" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="30"/>
+      <c r="J16" s="36"/>
     </row>
     <row r="17" spans="1:10" ht="144">
       <c r="A17" s="27" t="s">
@@ -3727,10 +2767,10 @@
         <v>76</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="G17" s="27" t="s">
         <v>23</v>
@@ -3738,7 +2778,7 @@
       <c r="I17" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="30"/>
+      <c r="J17" s="36"/>
     </row>
     <row r="18" spans="1:10" ht="144">
       <c r="A18" s="27" t="s">
@@ -3754,10 +2794,10 @@
         <v>77</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="G18" s="27" t="s">
         <v>23</v>
@@ -3765,7 +2805,7 @@
       <c r="I18" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="30"/>
+      <c r="J18" s="36"/>
     </row>
     <row r="19" spans="1:10" ht="144">
       <c r="A19" s="27" t="s">
@@ -3781,10 +2821,10 @@
         <v>79</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="G19" s="27" t="s">
         <v>23</v>
@@ -3792,7 +2832,7 @@
       <c r="I19" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="30"/>
+      <c r="J19" s="36"/>
     </row>
     <row r="20" spans="1:10" ht="126.6" customHeight="1">
       <c r="A20" s="27" t="s">
@@ -3808,14 +2848,16 @@
         <v>80</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="G20" s="27"/>
+        <v>153</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>23</v>
+      </c>
       <c r="I20" s="28"/>
-      <c r="J20" s="30"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="1:10" ht="133.19999999999999" customHeight="1">
       <c r="A21" s="27" t="s">
@@ -3831,14 +2873,16 @@
         <v>81</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="G21" s="27"/>
+        <v>154</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>23</v>
+      </c>
       <c r="I21" s="28"/>
-      <c r="J21" s="30"/>
+      <c r="J21" s="36"/>
     </row>
     <row r="22" spans="1:10" ht="144">
       <c r="A22" s="27" t="s">
@@ -3854,10 +2898,10 @@
         <v>82</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>23</v>
@@ -3865,7 +2909,7 @@
       <c r="I22" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="30"/>
+      <c r="J22" s="36"/>
     </row>
     <row r="23" spans="1:10" ht="144">
       <c r="A23" s="27" t="s">
@@ -3881,10 +2925,10 @@
         <v>83</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="G23" s="27" t="s">
         <v>23</v>
@@ -3892,7 +2936,7 @@
       <c r="I23" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="30"/>
+      <c r="J23" s="36"/>
     </row>
     <row r="24" spans="1:10" ht="158.4">
       <c r="A24" s="27" t="s">
@@ -3908,10 +2952,10 @@
         <v>84</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="G24" s="27" t="s">
         <v>23</v>
@@ -3919,11 +2963,11 @@
       <c r="I24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="30"/>
+      <c r="J24" s="36"/>
     </row>
     <row r="25" spans="1:10" ht="144">
       <c r="A25" s="27" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>63</v>
@@ -3932,17 +2976,18 @@
         <v>22</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="G25" s="27" t="s">
         <v>23</v>
       </c>
+      <c r="J25" s="36"/>
     </row>
     <row r="26" spans="1:10" ht="144">
       <c r="A26" s="27" t="s">
@@ -3955,17 +3000,18 @@
         <v>22</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="G26" s="27" t="s">
         <v>23</v>
       </c>
+      <c r="J26" s="36"/>
     </row>
     <row r="27" spans="1:10" ht="158.4">
       <c r="A27" s="27" t="s">
@@ -3978,17 +3024,18 @@
         <v>22</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="G27" s="27" t="s">
         <v>23</v>
       </c>
+      <c r="J27" s="36"/>
     </row>
     <row r="28" spans="1:10" ht="144">
       <c r="A28" s="27" t="s">
@@ -4001,13 +3048,13 @@
         <v>22</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="G28" s="27" t="s">
         <v>23</v>
@@ -4024,13 +3071,13 @@
         <v>22</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="G29" s="27" t="s">
         <v>23</v>
@@ -4047,13 +3094,13 @@
         <v>43</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="G30" s="27" t="s">
         <v>23</v>
@@ -4070,13 +3117,13 @@
         <v>45</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="G31" s="27" t="s">
         <v>23</v>
@@ -4093,13 +3140,13 @@
         <v>45</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="G32" s="27" t="s">
         <v>23</v>
@@ -4116,13 +3163,13 @@
         <v>45</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="G33" s="27" t="s">
         <v>23</v>
@@ -4139,13 +3186,13 @@
         <v>45</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="G34" s="27" t="s">
         <v>23</v>
@@ -4156,22 +3203,22 @@
         <v>48</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="C35" s="28" t="s">
         <v>45</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4185,16 +3232,16 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="G12:G35">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4204,16 +3251,15 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0FAF11-07EB-4276-B7AD-55C476EC9ED7}">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4229,77 +3275,77 @@
     <row r="1" spans="1:10">
       <c r="A1" s="5"/>
       <c r="B1" s="11"/>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="35"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="13"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="37"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="12" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="2"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="37"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="35"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="14">
         <v>45516</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="5"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="37"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="35"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="14">
         <v>41985</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="2"/>
       <c r="I4" s="17"/>
-      <c r="J4" s="37"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="12"/>
       <c r="H5" s="2"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="37"/>
+      <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="19"/>
@@ -4314,7 +3360,7 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="37"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="19"/>
@@ -4329,7 +3375,7 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="37"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="11"/>
@@ -4344,7 +3390,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="37"/>
+      <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10" ht="30.6">
       <c r="A9" s="23" t="s">
@@ -4380,270 +3426,270 @@
     </row>
     <row r="10" spans="1:10" ht="86.4">
       <c r="A10" s="27" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="37"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:10" ht="145.80000000000001" customHeight="1">
       <c r="A11" s="27" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="G11" s="27" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="37"/>
-    </row>
-    <row r="12" spans="1:10" ht="158.4">
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" spans="1:10" ht="115.2">
       <c r="A12" s="27" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>95</v>
+        <v>213</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>92</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="37"/>
-    </row>
-    <row r="13" spans="1:10" ht="144">
+      <c r="J12" s="32"/>
+    </row>
+    <row r="13" spans="1:10" ht="115.2">
       <c r="A13" s="27" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="C13" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="32"/>
+    </row>
+    <row r="14" spans="1:10" ht="100.8">
+      <c r="A14" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="32"/>
+    </row>
+    <row r="15" spans="1:10" ht="115.2">
+      <c r="A15" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="37"/>
-    </row>
-    <row r="14" spans="1:10" ht="129.6">
-      <c r="A14" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="37"/>
-    </row>
-    <row r="15" spans="1:10" ht="144">
-      <c r="A15" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>263</v>
-      </c>
       <c r="E15" s="28" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="37"/>
-    </row>
-    <row r="16" spans="1:10" ht="158.4">
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" spans="1:10" ht="115.2">
       <c r="A16" s="27" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="G16" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="37"/>
+      <c r="J16" s="32"/>
     </row>
     <row r="17" spans="1:10" ht="115.2">
       <c r="A17" s="27" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="G17" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="37"/>
+      <c r="J17" s="32"/>
     </row>
     <row r="18" spans="1:10" ht="72">
       <c r="A18" s="27" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="G18" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="37"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:10" ht="72">
       <c r="A19" s="27" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="G19" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="37"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="1:10" ht="72">
       <c r="A20" s="27" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="G20" s="27" t="s">
         <v>23</v>
@@ -4651,22 +3697,22 @@
     </row>
     <row r="21" spans="1:10" ht="72">
       <c r="A21" s="27" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="G21" s="27" t="s">
         <v>23</v>
@@ -4674,68 +3720,68 @@
     </row>
     <row r="22" spans="1:10" ht="72">
       <c r="A22" s="27" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="57.6">
       <c r="A23" s="27" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="57.6">
       <c r="A24" s="27" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="G24" s="27" t="s">
         <v>23</v>
@@ -4743,67 +3789,67 @@
     </row>
     <row r="25" spans="1:10" ht="72">
       <c r="A25" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="G25" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="72">
       <c r="A26" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="G26" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="39"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="37"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4814,26 +3860,12 @@
     <mergeCell ref="D5:E5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="G10:G22 G24">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+  <conditionalFormatting sqref="G10:G24">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:G22 G24">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G18:G24">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -4853,12 +3885,528 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9FEEB1-CDD8-4231-9BA9-81B9F9B5838A}">
-  <dimension ref="A1:I19"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57977689-3AE3-4B2E-A947-3358541BF278}">
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.33203125" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="D1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="14">
+        <v>45516</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="14">
+        <v>41985</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="12"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="19"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="20">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="19"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="20">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="11"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="13"/>
+      <c r="E8" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.399999999999999">
+      <c r="A9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="129.6">
+      <c r="A10" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" ht="129.6">
+      <c r="A11" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" ht="115.2">
+      <c r="A12" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" ht="129.6">
+      <c r="A13" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" ht="129.6">
+      <c r="A14" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" ht="129.6">
+      <c r="A15" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" ht="115.2">
+      <c r="A16" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+    </row>
+    <row r="17" spans="1:9" ht="129.6">
+      <c r="A17" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+    </row>
+    <row r="18" spans="1:9" ht="129.6">
+      <c r="A18" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="1:9" ht="115.2">
+      <c r="A19" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="115.2">
+      <c r="A20" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="115.2">
+      <c r="A21" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="115.2">
+      <c r="A22" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="129.6">
+      <c r="A23" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G23" xr:uid="{53FB3CC1-77D4-4E2D-BC39-D97339493EF7}">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9FEEB1-CDD8-4231-9BA9-81B9F9B5838A}">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.44140625" defaultRowHeight="14.4"/>
@@ -4873,10 +4421,10 @@
     <row r="1" spans="1:9">
       <c r="A1" s="5"/>
       <c r="B1" s="11"/>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="35"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
@@ -4888,12 +4436,12 @@
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="12" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="2"/>
@@ -4903,10 +4451,10 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="35"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="14">
         <v>45516</v>
       </c>
@@ -4917,10 +4465,10 @@
     <row r="4" spans="1:9">
       <c r="A4" s="3"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="35"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="14">
         <v>41985</v>
       </c>
@@ -4932,10 +4480,10 @@
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="12"/>
       <c r="H5" s="2"/>
       <c r="I5" s="6"/>
@@ -4949,7 +4497,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="20">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
@@ -4963,7 +4511,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="20">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
@@ -5011,222 +4559,222 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="72">
+    <row r="10" spans="1:9" ht="129.6">
       <c r="A10" s="27" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="G10" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="30" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:9" ht="86.4">
+    <row r="11" spans="1:9" ht="144">
       <c r="A11" s="27" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="G11" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="G11" s="30" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:9" ht="72">
+    <row r="12" spans="1:9" ht="115.2">
       <c r="A12" s="27" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>299</v>
+        <v>243</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>95</v>
+        <v>255</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>92</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:9" ht="72">
+    <row r="13" spans="1:9" ht="115.2">
       <c r="A13" s="27" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="G13" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="G13" s="30" t="s">
         <v>23</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:9" ht="86.4">
+    <row r="14" spans="1:9" ht="115.2">
       <c r="A14" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>308</v>
+        <v>245</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="G14" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" s="30" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:9" ht="72">
+    <row r="15" spans="1:9" ht="115.2">
       <c r="A15" s="27" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>311</v>
+        <v>246</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>313</v>
+        <v>262</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="G15" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="G15" s="30" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
     </row>
-    <row r="16" spans="1:9" ht="72">
+    <row r="16" spans="1:9" ht="115.2">
       <c r="A16" s="27" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>314</v>
+        <v>247</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>315</v>
+        <v>261</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="G16" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="G16" s="30" t="s">
         <v>23</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
     </row>
-    <row r="17" spans="1:9" ht="57.6">
+    <row r="17" spans="1:9" ht="115.2">
       <c r="A17" s="27" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="72">
+    <row r="18" spans="1:9" ht="115.2">
       <c r="A18" s="27" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>317</v>
+        <v>266</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>318</v>
+        <v>267</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>23</v>
@@ -5234,26 +4782,118 @@
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
     </row>
-    <row r="19" spans="1:9" ht="72">
+    <row r="19" spans="1:9" ht="115.2">
       <c r="A19" s="27" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="G19" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="158.4">
+      <c r="A20" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="129.6">
+      <c r="A21" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="144">
+      <c r="A22" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="115.2">
+      <c r="A23" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="G23" s="28" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5271,13 +4911,510 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G19">
+  <conditionalFormatting sqref="G17:G23">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G19" xr:uid="{F77338A2-5718-4353-8606-336E29D95BBA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G23" xr:uid="{F77338A2-5718-4353-8606-336E29D95BBA}">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D42D60-49DC-425F-B286-3E42B94E3D19}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="47.5546875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" customWidth="1"/>
+    <col min="4" max="4" width="40.21875" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="9" max="9" width="32.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="D1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="14">
+        <v>45516</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="14">
+        <v>41985</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="12"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="19"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="20">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="19"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="20">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="11"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="13"/>
+      <c r="E8" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" s="38" customFormat="1" ht="37.200000000000003" customHeight="1">
+      <c r="A9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="100.8">
+      <c r="A10" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" ht="115.2">
+      <c r="A11" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" ht="86.4">
+      <c r="A12" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" ht="86.4">
+      <c r="A13" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" ht="86.4">
+      <c r="A14" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" ht="86.4">
+      <c r="A15" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" ht="86.4">
+      <c r="A16" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+    </row>
+    <row r="17" spans="1:9" ht="86.4">
+      <c r="A17" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+    </row>
+    <row r="18" spans="1:9" ht="86.4">
+      <c r="A18" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="1:9" ht="100.8">
+      <c r="A19" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="100.8">
+      <c r="A20" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="102.6" customHeight="1">
+      <c r="A21" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="86.4">
+      <c r="A22" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G22" xr:uid="{423EF7E2-59AF-419E-85B2-756D0227885B}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5286,15 +5423,497 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D42D60-49DC-425F-B286-3E42B94E3D19}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835CF252-3E3F-41C0-A204-C01451445992}">
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="47.5546875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" customWidth="1"/>
+    <col min="4" max="4" width="40.21875" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="9" max="9" width="32.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="D1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="14">
+        <v>45516</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="14">
+        <v>41985</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="12"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="19"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="20">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="19"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="20">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="11"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="13"/>
+      <c r="E8" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" s="38" customFormat="1" ht="37.200000000000003" customHeight="1">
+      <c r="A9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="100.8">
+      <c r="A10" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" ht="115.2">
+      <c r="A11" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" ht="86.4">
+      <c r="A12" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" ht="86.4">
+      <c r="A13" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" ht="86.4">
+      <c r="A14" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" ht="86.4">
+      <c r="A15" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" ht="86.4">
+      <c r="A16" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+    </row>
+    <row r="17" spans="1:9" ht="86.4">
+      <c r="A17" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+    </row>
+    <row r="18" spans="1:9" ht="86.4">
+      <c r="A18" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="1:9" ht="100.8">
+      <c r="A19" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="100.8">
+      <c r="A20" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="102.6" customHeight="1">
+      <c r="A21" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="86.4">
+      <c r="A22" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G22" xr:uid="{1595ACF9-1F64-4ACF-B95D-5A3751D8DC6B}">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Docs/Kiểm thử chức năng..xlsx
+++ b/Docs/Kiểm thử chức năng..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DoAn3-1012227_12522T.1\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAE0EDB-A0C9-4317-A5DD-FF7879EA2094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA0BF38-AA66-441B-836E-44F86B87CBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="11412" windowHeight="10884" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Đăng Ký" sheetId="1" r:id="rId1"/>
@@ -3258,8 +3258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0FAF11-07EB-4276-B7AD-55C476EC9ED7}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5426,7 +5426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835CF252-3E3F-41C0-A204-C01451445992}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/Docs/Kiểm thử chức năng..xlsx
+++ b/Docs/Kiểm thử chức năng..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DoAn3-1012227_12522T.1\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA0BF38-AA66-441B-836E-44F86B87CBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F079ED59-7310-4E88-A14E-D9A28337A356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="11412" windowHeight="10884" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2592" yWindow="3696" windowWidth="18036" windowHeight="8664" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Đăng Ký" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Giỏ hàng" sheetId="5" r:id="rId4"/>
     <sheet name="Trang chủ " sheetId="7" r:id="rId5"/>
     <sheet name="Thanh toán" sheetId="8" r:id="rId6"/>
+    <sheet name="Đặt hàng " sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="388">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -1604,6 +1605,166 @@
   </si>
   <si>
     <t>TC5-04</t>
+  </si>
+  <si>
+    <t>Chức năng chi tiết giỏ hàng</t>
+  </si>
+  <si>
+    <t>Kiểm tra nút "Cập nhật" có hoạt động đúng không?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người dùng ở giao diện Giỏ hàng  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://combi.com.vn/
+B2: Nhấn vào biểu tượng Giỏ hàng chọn Giỏ hàng,
+B3: Ấn nút "Cập nhật".
+</t>
+  </si>
+  <si>
+    <t>B1: Hiển thị giao diện Trang chủ.
+B2: Hiển thị giao diện Giỏ hàng.
+B3: Cập nhật lại Tổng tiền thanh toán.</t>
+  </si>
+  <si>
+    <t>Kiểm tra nút "Tiếp tục mua sắm" có hoạt động hay không?</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://combi.com.vn/
+B2: Nhấn vào biểu tượng Giỏ hàng chọn Giỏ hàng,
+B3: Ấn nút "Tiếp tục mua sắm".</t>
+  </si>
+  <si>
+    <t>B1: Hiển thị giao diện Trang chủ.
+B2: Hiển thị giao diện Giỏ hàng.
+B3: Hiển thi giao diện Danh mục các sản phẩm.</t>
+  </si>
+  <si>
+    <t>B1: Hiển thị giao diện Trang chủ.
+B2: Hiển thị giao diện Giỏ hàng.
+B3: Hiển thi giao diện Danh mục cac sản phẩm.</t>
+  </si>
+  <si>
+    <t>Kiểm tra nút "Tiến hành thanh toán" có hoạt động hay không?</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://combi.com.vn/
+B2: Nhấn vào biểu tượng Giỏ hàng chọn Giỏ hàng,
+B3: Ấn nút "Tiến hành thanh toán"</t>
+  </si>
+  <si>
+    <t>B1: Hiển thị giao diện Trang chủ.
+B2: Hiển thị giao diện Giỏ hàng.
+B3: Hiển thi giao diện Thanh toán</t>
+  </si>
+  <si>
+    <t>Kiểm tra nút thêm số
+lượng sản phẩm khi số lượng sản phẩm lớn hơn 1.</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://combi.com.vn/
+B2: Nhấn vào biểu tượng Giỏ hàng chọn Giỏ hàng,
+B3: Ấn nút 🔼 của sản phẩm</t>
+  </si>
+  <si>
+    <t>B1: Hiển thị giao diện Trang chủ.
+B2: Hiển thị giao diện Giỏ hàng.
+B3: Số lượng sản phẩm tăng thêm 1 sau mỗi lần ấn 🔼</t>
+  </si>
+  <si>
+    <t>Kiểm tra nút giảm số
+lượng sản phẩm khi số lượng sản phẩm lớn hơn 1.</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://combi.com.vn/
+B2: Nhấn vào biểu tượng Giỏ hàng chọn Giỏ hàng,
+B3: Ấn nút 🔽 của sản phẩm</t>
+  </si>
+  <si>
+    <t>B1: Hiển thị giao diện Trang chủ.
+B2: Hiển thị giao diện Giỏ hàng.
+B3: Số lượng sản phẩm giảm  1 sau mỗi lần ấn 🔽</t>
+  </si>
+  <si>
+    <t>B1: Hiển thị giao diện Trang chủ.
+B2: Hiển thị giao diện Giỏ hàng.
+B3: Số lượng sản phẩm giảm 1 sau mỗi lần ấn 🔽</t>
+  </si>
+  <si>
+    <t>Kiểm tra nút giảm số
+lượng sản phẩm khi số lượng sản phẩm bằng 1.</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://combi.com.vn/
+B2: Nhấn vào biểu tượng Giỏ hàng chọn Giỏ hàng.
+B3: Ấn nút 🔽 của sản phẩm</t>
+  </si>
+  <si>
+    <t>B1: Hiển thị giao diện Trang chủ.
+B2: Hiển thị giao diện Giỏ hàng.
+B3: Thông báo "Bạn muốn xóa sản phẩm này khỏi giỏ hàng?"</t>
+  </si>
+  <si>
+    <t>B1: Hiển thị giao diện Trang chủ.
+B2: Hiển thị giao diện Giỏ hàng.
+B3: Số lượng sản phẩm không giảm.</t>
+  </si>
+  <si>
+    <t>Kiểm tra Đặt hàng có thể gồm nhiều sản phẩm không.</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://combi.com.vn/
+B2: Nhấn vào biểu tượng Giỏ hàng chọn Giỏ hàng.
+B3: Ấn Tiến hành thanh toán.</t>
+  </si>
+  <si>
+    <t>B1: Hiển thị giao diện Trang chủ.
+B2: Hiển thị giao diện Giỏ hàng.
+B3: Hiển thị giao diện Tiến hành thanh toán.</t>
+  </si>
+  <si>
+    <t>Kiểm tra link "Tài khoản của tôi" có hoạt động đúng hay không?</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://combi.com.vn/
+B2: Nhấn vào biểu tượng Giỏ hàng chọn Giỏ hàng.
+B3: Nhấn vào link "Tài khoản cả tôi".</t>
+  </si>
+  <si>
+    <t>B1: Hiển thị giao diện Trang chủ.
+B2: Hiển thị giao diện Giỏ hàng.
+B3: Hiển thị giao diện "Tài khoản của tôi".</t>
+  </si>
+  <si>
+    <t>Kiểm tra link "Đăng xuất" có hoạt động đúng hay không?</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://combi.com.vn/
+B2: Nhấn vào biểu tượng Giỏ hàng chọn Giỏ hàng.
+B3: Nhấn vào link Đăng xuất".</t>
+  </si>
+  <si>
+    <t>B1: Hiển thị giao diện Trang chủ.
+B2: Hiển thị giao diện Giỏ hàng.
+B3: Hiển thị giao diện "Trang chủ"</t>
+  </si>
+  <si>
+    <t>Kiểm tra nút Xóa có hoạt động đúng hay không?</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://combi.com.vn/
+B2: Nhấn vào biểu tượng Giỏ hàng chọn Giỏ hàng.
+B3: Nhấn vào biểu tượng Thùng rác.</t>
+  </si>
+  <si>
+    <t>B1: Hiển thị giao diện Trang chủ.
+B2: Hiển thị giao diện Giỏ hàng.
+B3: Hiển thị thông báo "Bạn muốn xóa sản phẩm khỏi giỏ hàng"</t>
+  </si>
+  <si>
+    <t>B1: Hiển thị giao diện Trang chủ.
+B2: Hiển thị giao diện Giỏ hàng.
+B3: Xóa sản phẩm khỏi giỏ hàng.</t>
   </si>
 </sst>
 </file>
@@ -3258,7 +3419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0FAF11-07EB-4276-B7AD-55C476EC9ED7}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -5916,4 +6077,419 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09833CCF-4195-4195-AD88-17A098AA486C}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="34.33203125" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="D1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="14">
+        <v>45516</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="14">
+        <v>41985</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="12"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="19"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="20">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="19"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="20">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="11"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="13"/>
+      <c r="E8" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="51">
+      <c r="A9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="230.4">
+      <c r="A10" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" ht="230.4">
+      <c r="A11" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" ht="244.8">
+      <c r="A12" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" ht="259.2">
+      <c r="A13" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" ht="244.8">
+      <c r="A14" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" ht="259.2">
+      <c r="A15" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" ht="244.8">
+      <c r="A16" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="244.8">
+      <c r="A17" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="230.4">
+      <c r="A18" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="244.8">
+      <c r="A19" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G19" xr:uid="{48F02694-4A7F-4004-BB0C-4BD712CDCF97}">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Docs/Kiểm thử chức năng..xlsx
+++ b/Docs/Kiểm thử chức năng..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DoAn3-1012227_12522T.1\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F079ED59-7310-4E88-A14E-D9A28337A356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE630E5-E673-4EA7-985C-1E68059858EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2592" yWindow="3696" windowWidth="18036" windowHeight="8664" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Đăng Ký" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Tìm kiếm " sheetId="2" r:id="rId3"/>
     <sheet name="Giỏ hàng" sheetId="5" r:id="rId4"/>
     <sheet name="Trang chủ " sheetId="7" r:id="rId5"/>
-    <sheet name="Thanh toán" sheetId="8" r:id="rId6"/>
-    <sheet name="Đặt hàng " sheetId="9" r:id="rId7"/>
+    <sheet name="Đặt hàng " sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="503">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -1583,18 +1583,6 @@
     <t>TC4-14</t>
   </si>
   <si>
-    <t>TC4-15</t>
-  </si>
-  <si>
-    <t>TC4-16</t>
-  </si>
-  <si>
-    <t>TC4-17</t>
-  </si>
-  <si>
-    <t>TC4-18</t>
-  </si>
-  <si>
     <t>TC5-01</t>
   </si>
   <si>
@@ -1610,168 +1598,473 @@
     <t>Chức năng chi tiết giỏ hàng</t>
   </si>
   <si>
-    <t>Kiểm tra nút "Cập nhật" có hoạt động đúng không?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Người dùng ở giao diện Giỏ hàng  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://combi.com.vn/
-B2: Nhấn vào biểu tượng Giỏ hàng chọn Giỏ hàng,
-B3: Ấn nút "Cập nhật".
-</t>
-  </si>
-  <si>
-    <t>B1: Hiển thị giao diện Trang chủ.
-B2: Hiển thị giao diện Giỏ hàng.
-B3: Cập nhật lại Tổng tiền thanh toán.</t>
-  </si>
-  <si>
-    <t>Kiểm tra nút "Tiếp tục mua sắm" có hoạt động hay không?</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://combi.com.vn/
-B2: Nhấn vào biểu tượng Giỏ hàng chọn Giỏ hàng,
-B3: Ấn nút "Tiếp tục mua sắm".</t>
-  </si>
-  <si>
-    <t>B1: Hiển thị giao diện Trang chủ.
-B2: Hiển thị giao diện Giỏ hàng.
-B3: Hiển thi giao diện Danh mục các sản phẩm.</t>
-  </si>
-  <si>
-    <t>B1: Hiển thị giao diện Trang chủ.
-B2: Hiển thị giao diện Giỏ hàng.
-B3: Hiển thi giao diện Danh mục cac sản phẩm.</t>
-  </si>
-  <si>
-    <t>Kiểm tra nút "Tiến hành thanh toán" có hoạt động hay không?</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://combi.com.vn/
-B2: Nhấn vào biểu tượng Giỏ hàng chọn Giỏ hàng,
-B3: Ấn nút "Tiến hành thanh toán"</t>
-  </si>
-  <si>
-    <t>B1: Hiển thị giao diện Trang chủ.
-B2: Hiển thị giao diện Giỏ hàng.
-B3: Hiển thi giao diện Thanh toán</t>
-  </si>
-  <si>
-    <t>Kiểm tra nút thêm số
-lượng sản phẩm khi số lượng sản phẩm lớn hơn 1.</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://combi.com.vn/
-B2: Nhấn vào biểu tượng Giỏ hàng chọn Giỏ hàng,
-B3: Ấn nút 🔼 của sản phẩm</t>
-  </si>
-  <si>
-    <t>B1: Hiển thị giao diện Trang chủ.
-B2: Hiển thị giao diện Giỏ hàng.
-B3: Số lượng sản phẩm tăng thêm 1 sau mỗi lần ấn 🔼</t>
-  </si>
-  <si>
-    <t>Kiểm tra nút giảm số
-lượng sản phẩm khi số lượng sản phẩm lớn hơn 1.</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://combi.com.vn/
-B2: Nhấn vào biểu tượng Giỏ hàng chọn Giỏ hàng,
-B3: Ấn nút 🔽 của sản phẩm</t>
-  </si>
-  <si>
-    <t>B1: Hiển thị giao diện Trang chủ.
-B2: Hiển thị giao diện Giỏ hàng.
-B3: Số lượng sản phẩm giảm  1 sau mỗi lần ấn 🔽</t>
-  </si>
-  <si>
-    <t>B1: Hiển thị giao diện Trang chủ.
-B2: Hiển thị giao diện Giỏ hàng.
-B3: Số lượng sản phẩm giảm 1 sau mỗi lần ấn 🔽</t>
-  </si>
-  <si>
-    <t>Kiểm tra nút giảm số
-lượng sản phẩm khi số lượng sản phẩm bằng 1.</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://combi.com.vn/
-B2: Nhấn vào biểu tượng Giỏ hàng chọn Giỏ hàng.
-B3: Ấn nút 🔽 của sản phẩm</t>
-  </si>
-  <si>
-    <t>B1: Hiển thị giao diện Trang chủ.
-B2: Hiển thị giao diện Giỏ hàng.
-B3: Thông báo "Bạn muốn xóa sản phẩm này khỏi giỏ hàng?"</t>
-  </si>
-  <si>
-    <t>B1: Hiển thị giao diện Trang chủ.
-B2: Hiển thị giao diện Giỏ hàng.
-B3: Số lượng sản phẩm không giảm.</t>
-  </si>
-  <si>
-    <t>Kiểm tra Đặt hàng có thể gồm nhiều sản phẩm không.</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://combi.com.vn/
-B2: Nhấn vào biểu tượng Giỏ hàng chọn Giỏ hàng.
-B3: Ấn Tiến hành thanh toán.</t>
-  </si>
-  <si>
-    <t>B1: Hiển thị giao diện Trang chủ.
-B2: Hiển thị giao diện Giỏ hàng.
-B3: Hiển thị giao diện Tiến hành thanh toán.</t>
-  </si>
-  <si>
-    <t>Kiểm tra link "Tài khoản của tôi" có hoạt động đúng hay không?</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://combi.com.vn/
-B2: Nhấn vào biểu tượng Giỏ hàng chọn Giỏ hàng.
-B3: Nhấn vào link "Tài khoản cả tôi".</t>
-  </si>
-  <si>
-    <t>B1: Hiển thị giao diện Trang chủ.
-B2: Hiển thị giao diện Giỏ hàng.
-B3: Hiển thị giao diện "Tài khoản của tôi".</t>
-  </si>
-  <si>
-    <t>Kiểm tra link "Đăng xuất" có hoạt động đúng hay không?</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://combi.com.vn/
-B2: Nhấn vào biểu tượng Giỏ hàng chọn Giỏ hàng.
-B3: Nhấn vào link Đăng xuất".</t>
-  </si>
-  <si>
-    <t>B1: Hiển thị giao diện Trang chủ.
-B2: Hiển thị giao diện Giỏ hàng.
-B3: Hiển thị giao diện "Trang chủ"</t>
-  </si>
-  <si>
-    <t>Kiểm tra nút Xóa có hoạt động đúng hay không?</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://combi.com.vn/
-B2: Nhấn vào biểu tượng Giỏ hàng chọn Giỏ hàng.
-B3: Nhấn vào biểu tượng Thùng rác.</t>
-  </si>
-  <si>
-    <t>B1: Hiển thị giao diện Trang chủ.
-B2: Hiển thị giao diện Giỏ hàng.
-B3: Hiển thị thông báo "Bạn muốn xóa sản phẩm khỏi giỏ hàng"</t>
-  </si>
-  <si>
-    <t>B1: Hiển thị giao diện Trang chủ.
-B2: Hiển thị giao diện Giỏ hàng.
-B3: Xóa sản phẩm khỏi giỏ hàng.</t>
+    <t>TC4-01</t>
+  </si>
+  <si>
+    <t>TC4-02</t>
+  </si>
+  <si>
+    <t>TC4-03</t>
+  </si>
+  <si>
+    <t>TC4-04</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Tên Test Case</t>
+  </si>
+  <si>
+    <t>Mục đích</t>
+  </si>
+  <si>
+    <t>Bước thực hiện</t>
+  </si>
+  <si>
+    <t>Kết quả mong đợi</t>
+  </si>
+  <si>
+    <t>TC_ORDER_001</t>
+  </si>
+  <si>
+    <t>Đặt hàng với COD đầy đủ thông tin</t>
+  </si>
+  <si>
+    <t>Kiểm tra đặt hàng thành công khi nhập đúng và chọn thanh toán khi nhận hàng</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập</t>
+  </si>
+  <si>
+    <t>2. Vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>3. Tiến hành đặt hàng</t>
+  </si>
+  <si>
+    <t>4. Nhập đầy đủ thông tin: họ tên, email, sđt, địa chỉ, ghi chú</t>
+  </si>
+  <si>
+    <t>5. Chọn Tỉnh/Quận/Xã</t>
+  </si>
+  <si>
+    <t>6. Chọn “Thanh toán khi nhận hàng”</t>
+  </si>
+  <si>
+    <t>7. Click “Đặt hàng”</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo đặt hàng thành công, có mã đơn hàng</t>
+  </si>
+  <si>
+    <t>TC_ORDER_003</t>
+  </si>
+  <si>
+    <t>Không chọn Tỉnh/Thành</t>
+  </si>
+  <si>
+    <t>Kiểm tra validation khi không chọn Tỉnh</t>
+  </si>
+  <si>
+    <t>Bỏ qua chọn Tỉnh nhưng nhập các thông tin khác</t>
+  </si>
+  <si>
+    <t>Hiển thị lỗi: “Vui lòng chọn Tỉnh/Thành”</t>
+  </si>
+  <si>
+    <t>TC_ORDER_004</t>
+  </si>
+  <si>
+    <t>Không chọn Quận/Huyện</t>
+  </si>
+  <si>
+    <t>Kiểm tra validation khi không chọn Quận</t>
+  </si>
+  <si>
+    <t>Bỏ qua chọn Quận</t>
+  </si>
+  <si>
+    <t>Hiển thị lỗi: “Vui lòng chọn Quận/Huyện”</t>
+  </si>
+  <si>
+    <t>TC_ORDER_005</t>
+  </si>
+  <si>
+    <t>Không chọn Phường/Xã</t>
+  </si>
+  <si>
+    <t>Kiểm tra validation khi không chọn Xã</t>
+  </si>
+  <si>
+    <t>Bỏ qua chọn Xã</t>
+  </si>
+  <si>
+    <t>Hiển thị lỗi: “Vui lòng chọn Xã/Phường”</t>
+  </si>
+  <si>
+    <t>TC_ORDER_006</t>
+  </si>
+  <si>
+    <t>Ghi chú quá dài</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi ghi chú vượt quá giới hạn (300 ký tự)</t>
+  </si>
+  <si>
+    <t>Nhập ghi chú &gt; 300 ký tự</t>
+  </si>
+  <si>
+    <t>Hiển thị lỗi hoặc tự động cắt chuỗi</t>
+  </si>
+  <si>
+    <t>TC_ORDER_007</t>
+  </si>
+  <si>
+    <t>Mã giảm giá hợp lệ</t>
+  </si>
+  <si>
+    <t>Kiểm tra mã giảm giá hợp lệ</t>
+  </si>
+  <si>
+    <t>Nhập mã SALE20</t>
+  </si>
+  <si>
+    <t>Áp dụng giảm giá đúng số tiền hoặc phần trăm</t>
+  </si>
+  <si>
+    <t>TC_ORDER_008</t>
+  </si>
+  <si>
+    <t>Mã giảm giá không hợp lệ</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi nhập mã sai</t>
+  </si>
+  <si>
+    <t>Nhập mã ABC123</t>
+  </si>
+  <si>
+    <t>Hiển thị lỗi: “Mã giảm giá không hợp lệ”</t>
+  </si>
+  <si>
+    <t>TC_ORDER_009</t>
+  </si>
+  <si>
+    <t>Thiếu số điện thoại</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi bỏ trống SĐT</t>
+  </si>
+  <si>
+    <t>Không nhập SĐT</t>
+  </si>
+  <si>
+    <t>Hiển thị lỗi: “Vui lòng nhập số điện thoại”</t>
+  </si>
+  <si>
+    <t>TC_ORDER_010</t>
+  </si>
+  <si>
+    <t>Thiếu địa chỉ</t>
+  </si>
+  <si>
+    <t>Kiểm tra bắt buộc nhập địa chỉ cụ thể</t>
+  </si>
+  <si>
+    <t>Không nhập địa chỉ chi tiết</t>
+  </si>
+  <si>
+    <t>Hiển thị lỗi: “Vui lòng nhập địa chỉ”</t>
+  </si>
+  <si>
+    <t>TC_ORDER_011</t>
+  </si>
+  <si>
+    <t>SĐT không hợp lệ</t>
+  </si>
+  <si>
+    <t>Kiểm tra định dạng số điện thoại</t>
+  </si>
+  <si>
+    <t>Nhập sđt sai: 123abc, 0000</t>
+  </si>
+  <si>
+    <t>Hiển thị lỗi: “Số điện thoại không hợp lệ”</t>
+  </si>
+  <si>
+    <t>TC_ORDER_012</t>
+  </si>
+  <si>
+    <t>Email sai định dạng</t>
+  </si>
+  <si>
+    <t>Kiểm tra định dạng email</t>
+  </si>
+  <si>
+    <t>Nhập email sai: abc@.com</t>
+  </si>
+  <si>
+    <t>Hiển thị lỗi: “Email không hợp lệ”</t>
+  </si>
+  <si>
+    <t>TC_ORDER_013</t>
+  </si>
+  <si>
+    <t>Không chọn phương thức thanh toán</t>
+  </si>
+  <si>
+    <t>Kiểm tra bắt buộc chọn phương thức</t>
+  </si>
+  <si>
+    <t>Bỏ chọn phương thức thanh toán</t>
+  </si>
+  <si>
+    <t>Hiển thị lỗi: “Vui lòng chọn phương thức thanh toán”</t>
+  </si>
+  <si>
+    <t>TC_ORDER_014</t>
+  </si>
+  <si>
+    <t>Sản phẩm hết hàng</t>
+  </si>
+  <si>
+    <t>Kiểm tra xử lý khi sản phẩm trong giỏ đã hết hàng</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm hết hàng → giỏ → đặt hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị lỗi hoặc loại sản phẩm khỏi đơn hàng</t>
+  </si>
+  <si>
+    <t>TC_ORDER_015</t>
+  </si>
+  <si>
+    <t>Reload giữa chừng</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi reload trang đặt hàng</t>
+  </si>
+  <si>
+    <t>Nhập thông tin giữa chừng → F5</t>
+  </si>
+  <si>
+    <t>Cảnh báo mất dữ liệu hoặc giữ nguyên form</t>
+  </si>
+  <si>
+    <t>TC_ORDER_016</t>
+  </si>
+  <si>
+    <t>Bỏ trống toàn bộ</t>
+  </si>
+  <si>
+    <t>Kiểm tra các trường bắt buộc</t>
+  </si>
+  <si>
+    <t>Click “Đặt hàng” khi chưa nhập gì</t>
+  </si>
+  <si>
+    <t>Hiển thị lỗi tất cả trường bắt buộc</t>
+  </si>
+  <si>
+    <t>TC_ORDER_017</t>
+  </si>
+  <si>
+    <t>Mã giảm giá hết hạn</t>
+  </si>
+  <si>
+    <t>Kiểm tra mã cũ</t>
+  </si>
+  <si>
+    <t>Nhập mã SALE2022</t>
+  </si>
+  <si>
+    <t>Hiển thị lỗi: “Mã giảm giá đã hết hạn”</t>
+  </si>
+  <si>
+    <t>TC_ORDER_018</t>
+  </si>
+  <si>
+    <t>Tài khoản chưa xác minh</t>
+  </si>
+  <si>
+    <t>Kiểm tra giới hạn khi tài khoản chưa xác minh email</t>
+  </si>
+  <si>
+    <t>Đăng nhập tài khoản chưa xác minh → đặt hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị lỗi yêu cầu xác minh email</t>
+  </si>
+  <si>
+    <t>TC_ORDER_019</t>
+  </si>
+  <si>
+    <t>Đặt hàng nhiều sản phẩm</t>
+  </si>
+  <si>
+    <t>Kiểm tra xử lý nhiều sản phẩm trong đơn</t>
+  </si>
+  <si>
+    <t>Thêm 2–3 sản phẩm khác nhau → đặt hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị đầy đủ sản phẩm và tổng giá đúng</t>
+  </si>
+  <si>
+    <t>TC_ORDER_020</t>
+  </si>
+  <si>
+    <t>Quay lại giỏ hàng từ checkout</t>
+  </si>
+  <si>
+    <t>Kiểm tra điều hướng và dữ liệu</t>
+  </si>
+  <si>
+    <t>Click “Quay lại giỏ hàng”</t>
+  </si>
+  <si>
+    <t>Quay lại đúng trang, giữ nguyên dữ liệu đã nhập</t>
+  </si>
+  <si>
+    <t>TC3-15</t>
+  </si>
+  <si>
+    <t>TC3-16</t>
+  </si>
+  <si>
+    <t>TC3-17</t>
+  </si>
+  <si>
+    <t>TC3-18</t>
+  </si>
+  <si>
+    <t>TC3-19</t>
+  </si>
+  <si>
+    <t>TC3-20</t>
+  </si>
+  <si>
+    <t>TC3-21</t>
+  </si>
+  <si>
+    <t>TC3-22</t>
+  </si>
+  <si>
+    <t>TC3-23</t>
+  </si>
+  <si>
+    <t>TC3-24</t>
+  </si>
+  <si>
+    <t>TC3-25</t>
+  </si>
+  <si>
+    <t>TC3-26</t>
+  </si>
+  <si>
+    <t>TC3-27</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Kiểm tra</t>
+  </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>Mua hàng với tăng số lượng</t>
+  </si>
+  <si>
+    <t>Tăng số lượng lên 2 → Thêm vào giỏ → Kiểm tra số lượng</t>
+  </si>
+  <si>
+    <t>Sản phẩm có số lượng 2 trong giỏ</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>Mua hàng rồi đóng popup</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm → Đóng hộp thoại → Vào giỏ kiểm tra</t>
+  </si>
+  <si>
+    <t>Giỏ hàng vẫn có sản phẩm</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>Xóa sản phẩm khỏi giỏ</t>
+  </si>
+  <si>
+    <t>Thêm 1 sản phẩm → Vào giỏ → Xóa</t>
+  </si>
+  <si>
+    <t>Giỏ hàng trống</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>Mua hàng và tiến hành thanh toán ngay</t>
+  </si>
+  <si>
+    <t>Thêm → Tiến hành thanh toán ngay</t>
+  </si>
+  <si>
+    <t>Chuyển đến trang checkout</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>Điền đầy đủ thông tin và đặt hàng thành công</t>
+  </si>
+  <si>
+    <t>Đặt hàng với thông tin hợp lệ</t>
+  </si>
+  <si>
+    <t>Có thông báo đặt hàng thành công</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>Nhập mã giảm giá không hợp lệ</t>
+  </si>
+  <si>
+    <t>Nhập mã sai → Áp dụng</t>
+  </si>
+  <si>
+    <t>Có thông báo lỗi</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>Không nhập email → Đặt hàng</t>
+  </si>
+  <si>
+    <t>Thiếu email</t>
+  </si>
+  <si>
+    <t>Hiển thị lỗi yêu cầu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1809,8 +2102,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1839,6 +2140,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="32"/>
       </patternFill>
     </fill>
   </fills>
@@ -2112,7 +2425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2191,11 +2504,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2595,8 +2920,8 @@
       <c r="A2" s="2"/>
       <c r="B2" s="9"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="2"/>
@@ -2609,10 +2934,10 @@
     <row r="3" spans="1:13">
       <c r="A3" s="5"/>
       <c r="B3" s="11"/>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="40"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="12" t="s">
         <v>2</v>
       </c>
@@ -2628,10 +2953,10 @@
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
@@ -2647,10 +2972,10 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="14">
         <v>45516</v>
       </c>
@@ -2665,10 +2990,10 @@
     <row r="6" spans="1:13">
       <c r="A6" s="3"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="14">
         <v>41985</v>
       </c>
@@ -2684,10 +3009,10 @@
       <c r="A7" s="3"/>
       <c r="B7" s="2"/>
       <c r="C7" s="18"/>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="12"/>
       <c r="H7" s="2"/>
       <c r="I7" s="6"/>
@@ -3436,10 +3761,10 @@
     <row r="1" spans="1:10">
       <c r="A1" s="5"/>
       <c r="B1" s="11"/>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
@@ -3452,10 +3777,10 @@
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="42"/>
       <c r="F2" s="12" t="s">
         <v>180</v>
       </c>
@@ -3468,10 +3793,10 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="40"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="14">
         <v>45516</v>
       </c>
@@ -3483,10 +3808,10 @@
     <row r="4" spans="1:10">
       <c r="A4" s="3"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="14">
         <v>41985</v>
       </c>
@@ -3499,10 +3824,10 @@
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="12"/>
       <c r="H5" s="2"/>
       <c r="I5" s="6"/>
@@ -4048,10 +4373,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57977689-3AE3-4B2E-A947-3358541BF278}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.33203125" defaultRowHeight="14.4"/>
@@ -4066,10 +4391,10 @@
     <row r="1" spans="1:9">
       <c r="A1" s="5"/>
       <c r="B1" s="11"/>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
@@ -4081,10 +4406,10 @@
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="42"/>
       <c r="F2" s="12" t="s">
         <v>85</v>
       </c>
@@ -4096,10 +4421,10 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="40"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="14">
         <v>45516</v>
       </c>
@@ -4110,10 +4435,10 @@
     <row r="4" spans="1:9">
       <c r="A4" s="3"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="14">
         <v>41985</v>
       </c>
@@ -4125,10 +4450,10 @@
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="12"/>
       <c r="H5" s="2"/>
       <c r="I5" s="6"/>
@@ -4541,6 +4866,305 @@
         <v>103</v>
       </c>
       <c r="G23" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="115.2">
+      <c r="A24" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="144">
+      <c r="A25" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="100.8">
+      <c r="A26" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="100.8">
+      <c r="A27" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="100.8">
+      <c r="A28" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="100.8">
+      <c r="A29" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="100.8">
+      <c r="A30" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="100.8">
+      <c r="A31" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="100.8">
+      <c r="A32" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="115.2">
+      <c r="A33" s="27" t="s">
+        <v>468</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="129.6">
+      <c r="A34" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="144">
+      <c r="A35" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="100.8">
+      <c r="A36" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="G36" s="30" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4554,7 +5178,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G23" xr:uid="{53FB3CC1-77D4-4E2D-BC39-D97339493EF7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G36" xr:uid="{53FB3CC1-77D4-4E2D-BC39-D97339493EF7}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4566,8 +5190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9FEEB1-CDD8-4231-9BA9-81B9F9B5838A}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.44140625" defaultRowHeight="14.4"/>
@@ -4582,10 +5206,10 @@
     <row r="1" spans="1:9">
       <c r="A1" s="5"/>
       <c r="B1" s="11"/>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
@@ -4597,10 +5221,10 @@
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="42"/>
       <c r="F2" s="12" t="s">
         <v>131</v>
       </c>
@@ -4612,10 +5236,10 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="40"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="14">
         <v>45516</v>
       </c>
@@ -4626,10 +5250,10 @@
     <row r="4" spans="1:9">
       <c r="A4" s="3"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="14">
         <v>41985</v>
       </c>
@@ -4641,10 +5265,10 @@
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="12"/>
       <c r="H5" s="2"/>
       <c r="I5" s="6"/>
@@ -4722,7 +5346,7 @@
     </row>
     <row r="10" spans="1:9" ht="129.6">
       <c r="A10" s="27" t="s">
-        <v>286</v>
+        <v>349</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>239</v>
@@ -4747,7 +5371,7 @@
     </row>
     <row r="11" spans="1:9" ht="144">
       <c r="A11" s="27" t="s">
-        <v>287</v>
+        <v>350</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>242</v>
@@ -4772,7 +5396,7 @@
     </row>
     <row r="12" spans="1:9" ht="115.2">
       <c r="A12" s="27" t="s">
-        <v>288</v>
+        <v>351</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>243</v>
@@ -4797,7 +5421,7 @@
     </row>
     <row r="13" spans="1:9" ht="115.2">
       <c r="A13" s="27" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>244</v>
@@ -4822,7 +5446,7 @@
     </row>
     <row r="14" spans="1:9" ht="115.2">
       <c r="A14" s="27" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>245</v>
@@ -4847,7 +5471,7 @@
     </row>
     <row r="15" spans="1:9" ht="115.2">
       <c r="A15" s="27" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>246</v>
@@ -4872,7 +5496,7 @@
     </row>
     <row r="16" spans="1:9" ht="115.2">
       <c r="A16" s="27" t="s">
-        <v>340</v>
+        <v>288</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>247</v>
@@ -4897,7 +5521,7 @@
     </row>
     <row r="17" spans="1:9" ht="115.2">
       <c r="A17" s="27" t="s">
-        <v>341</v>
+        <v>289</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>241</v>
@@ -4920,7 +5544,7 @@
     </row>
     <row r="18" spans="1:9" ht="115.2">
       <c r="A18" s="27" t="s">
-        <v>342</v>
+        <v>290</v>
       </c>
       <c r="B18" s="28" t="s">
         <v>266</v>
@@ -4945,7 +5569,7 @@
     </row>
     <row r="19" spans="1:9" ht="115.2">
       <c r="A19" s="27" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>142</v>
@@ -4968,7 +5592,7 @@
     </row>
     <row r="20" spans="1:9" ht="158.4">
       <c r="A20" s="27" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B20" s="28" t="s">
         <v>248</v>
@@ -4991,7 +5615,7 @@
     </row>
     <row r="21" spans="1:9" ht="129.6">
       <c r="A21" s="27" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B21" s="28" t="s">
         <v>271</v>
@@ -5014,7 +5638,7 @@
     </row>
     <row r="22" spans="1:9" ht="144">
       <c r="A22" s="27" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>275</v>
@@ -5037,7 +5661,7 @@
     </row>
     <row r="23" spans="1:9" ht="115.2">
       <c r="A23" s="27" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>278</v>
@@ -5110,10 +5734,10 @@
     <row r="1" spans="1:9">
       <c r="A1" s="5"/>
       <c r="B1" s="11"/>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
@@ -5125,10 +5749,10 @@
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="42"/>
       <c r="F2" s="12" t="s">
         <v>85</v>
       </c>
@@ -5140,10 +5764,10 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="40"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="14">
         <v>45516</v>
       </c>
@@ -5154,10 +5778,10 @@
     <row r="4" spans="1:9">
       <c r="A4" s="3"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="14">
         <v>41985</v>
       </c>
@@ -5169,10 +5793,10 @@
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="12"/>
       <c r="H5" s="2"/>
       <c r="I5" s="6"/>
@@ -5250,7 +5874,7 @@
     </row>
     <row r="10" spans="1:9" ht="100.8">
       <c r="A10" s="27" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>302</v>
@@ -5275,7 +5899,7 @@
     </row>
     <row r="11" spans="1:9" ht="115.2">
       <c r="A11" s="27" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>305</v>
@@ -5300,7 +5924,7 @@
     </row>
     <row r="12" spans="1:9" ht="86.4">
       <c r="A12" s="27" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>308</v>
@@ -5325,7 +5949,7 @@
     </row>
     <row r="13" spans="1:9" ht="86.4">
       <c r="A13" s="27" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>241</v>
@@ -5584,494 +6208,551 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835CF252-3E3F-41C0-A204-C01451445992}">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09833CCF-4195-4195-AD88-17A098AA486C}">
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="47.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="34.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" customWidth="1"/>
-    <col min="4" max="4" width="40.21875" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
-    <col min="9" max="9" width="32.77734375" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="5"/>
       <c r="B1" s="11"/>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="F1" s="11"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="E2" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="14">
+      <c r="E3" s="14">
         <v>45516</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="F3" s="15"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="14">
+      <c r="E4" s="14">
         <v>41985</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="F4" s="16"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="12"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="E5" s="12"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="19"/>
       <c r="B6" s="1"/>
       <c r="C6" s="18"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="20">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="E6" s="20">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="19"/>
       <c r="B7" s="1"/>
       <c r="C7" s="18"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="20">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="E7" s="20">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="11"/>
       <c r="B8" s="1"/>
       <c r="C8" s="13"/>
-      <c r="E8" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" s="38" customFormat="1" ht="37.200000000000003" customHeight="1">
-      <c r="A9" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>16</v>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="30.6">
+      <c r="A9" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>355</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>17</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="100.8">
-      <c r="A10" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>23</v>
-      </c>
+    <row r="10" spans="1:8">
+      <c r="A10" s="44" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>360</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" spans="1:9" ht="115.2">
-      <c r="A11" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" spans="1:9" ht="86.4">
-      <c r="A12" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="E12" s="44"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" spans="1:9" ht="86.4">
-      <c r="A13" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.8">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="E13" s="44"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-    </row>
-    <row r="14" spans="1:9" ht="86.4">
-      <c r="A14" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-    </row>
-    <row r="15" spans="1:9" ht="86.4">
-      <c r="A15" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-    </row>
-    <row r="16" spans="1:9" ht="86.4">
-      <c r="A16" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-    </row>
-    <row r="17" spans="1:9" ht="86.4">
-      <c r="A17" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-    </row>
-    <row r="18" spans="1:9" ht="86.4">
-      <c r="A18" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-    </row>
-    <row r="19" spans="1:9" ht="100.8">
-      <c r="A19" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>327</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>327</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="100.8">
-      <c r="A20" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="102.6" customHeight="1">
-      <c r="A21" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>332</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="86.4">
-      <c r="A22" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>336</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>23</v>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="E16" s="44"/>
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" spans="1:6" ht="43.2">
+      <c r="A17" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="1:6" ht="43.2">
+      <c r="A18" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="1:6" ht="43.2">
+      <c r="A19" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="43.2">
+      <c r="A20" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.2">
+      <c r="A21" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="43.2">
+      <c r="A22" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="43.2">
+      <c r="A23" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="43.2">
+      <c r="A24" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="43.2">
+      <c r="A25" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="43.2">
+      <c r="A26" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="43.2">
+      <c r="A27" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="43.2">
+      <c r="A28" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="43.2">
+      <c r="A29" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="43.2">
+      <c r="A30" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="43.2">
+      <c r="A31" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="43.2">
+      <c r="A32" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="43.2">
+      <c r="A33" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="43.2">
+      <c r="A34" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
+  <mergeCells count="4">
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="E10:E16"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G22" xr:uid="{1595ACF9-1F64-4ACF-B95D-5A3751D8DC6B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F18" xr:uid="{48F02694-4A7F-4004-BB0C-4BD712CDCF97}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6080,416 +6761,128 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09833CCF-4195-4195-AD88-17A098AA486C}">
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11071694-BD90-4F3C-9D3F-4C0688089A0D}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.33203125" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="5"/>
-      <c r="B1" s="11"/>
-      <c r="D1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="14">
-        <v>45516</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="14">
-        <v>41985</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="12"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="19"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="20">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="19"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="20">
-        <v>8</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="11"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="13"/>
-      <c r="E8" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="5">
-        <v>2</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" ht="51">
-      <c r="A9" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="230.4">
-      <c r="A10" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="C10" s="28" t="s">
+    <row r="1" spans="1:4" ht="28.8">
+      <c r="A1" s="45" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>354</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>355</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>356</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>356</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" spans="1:9" ht="230.4">
-      <c r="A11" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>357</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>359</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" spans="1:9" ht="244.8">
-      <c r="A12" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>361</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" spans="1:9" ht="259.2">
-      <c r="A13" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>364</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-    </row>
-    <row r="14" spans="1:9" ht="244.8">
-      <c r="A14" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>369</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>370</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-    </row>
-    <row r="15" spans="1:9" ht="259.2">
-      <c r="A15" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>372</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>374</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-    </row>
-    <row r="16" spans="1:9" ht="244.8">
-      <c r="A16" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>376</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="244.8">
-      <c r="A17" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="230.4">
-      <c r="A18" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>382</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="244.8">
-      <c r="A19" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>384</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>386</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>387</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>92</v>
+      <c r="C1" s="45" t="s">
+        <v>473</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="115.2">
+      <c r="A2" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>476</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>477</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="86.4">
+      <c r="A3" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>480</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="72">
+      <c r="A4" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>484</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>485</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="86.4">
+      <c r="A5" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="86.4">
+      <c r="A6" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>492</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="57.6">
+      <c r="A7" s="33" t="s">
+        <v>495</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>496</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>497</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="57.6">
+      <c r="A8" s="33" t="s">
+        <v>499</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>500</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G19" xr:uid="{48F02694-4A7F-4004-BB0C-4BD712CDCF97}">
-      <formula1>"Pass,Fail"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Docs/Kiểm thử chức năng..xlsx
+++ b/Docs/Kiểm thử chức năng..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DoAn3-1012227_12522T.1\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE630E5-E673-4EA7-985C-1E68059858EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECFCE87-1A84-4ACB-B5F4-0EC90E804449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Đăng Ký" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Giỏ hàng" sheetId="5" r:id="rId4"/>
     <sheet name="Trang chủ " sheetId="7" r:id="rId5"/>
     <sheet name="Đặt hàng " sheetId="9" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="432">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -105,10 +104,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t xml:space="preserve">Phương pháp kiểm thử: hộp đen 
-Trường hợp kiểm thử: Đăng ký cho người dùng </t>
-  </si>
-  <si>
     <t>TC1-02</t>
   </si>
   <si>
@@ -181,59 +176,12 @@
     <t>TC1-24</t>
   </si>
   <si>
-    <t xml:space="preserve">Kiểm tra đăng ký vào website cho:  Họ hợp lệ cho ứng dụng web, tên hợp lệ cho ứng dụng web , nhập Địa chỉ email hợp lệ cho ứng dụng web, nhập Mật khẩu hợp lệ cho ứng dụng web , nhập. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiểm tra đăng ký vào website cho:  Không nhập Họ, nhập tên hợp lệ cho ứng dụng web, nhập Địa chỉ email hợp lệ cho ứng dụng web, nhập Mật khẩu hợp lệ cho ứng dụng web.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiểm tra đăng ký vào website cho:  Họ hợp lệ cho ứng dụng web, nhập tên hợp lệ cho ứng dụng web, không nhập Địa chỉ email cho ứng dụng web, nhập Mật khẩu hợp lệ cho ứng dụng web.
-</t>
-  </si>
-  <si>
-    <t>Kiểm tra đăng ký vào website cho:  Họ hợp lệ cho ứng dụng web, nhập tên cho ứng dụng web, nhập Địa chỉ email  hợp lệ cho ứng dụng web, không nhập Mật khẩu cho ứng dung web.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiểm tra đăng ký vào website cho: Không nhập Họ cho ứng dụng web, không nhập tên cho ứng dụng web, không nhập email cho ứng dụng web, không nhập mật khẩu cho ứng dụng web. 
-</t>
-  </si>
-  <si>
-    <t>Nhập Họ chứa kí tự đặc biệt, nhập tên cho ứng web, nhập Địa chỉ email, nhập Mật khẩu.</t>
-  </si>
-  <si>
-    <t>Nhập Họ tất cả là kí tự đặc biệt, nhập tên hợp lệ, nhập Địa chỉ email, nhập Mật khẩu.</t>
-  </si>
-  <si>
-    <t>Nhập Họ hợp lệ, nhập tên hợp lệ, nhập 
-Địa chỉ email hợp lệ, không nhập Mật khẩu</t>
-  </si>
-  <si>
-    <t>Nhập Họ hợp lệ, không nhập tên, nhập 
-Địa chỉ email hợp lệ, nhập Mật khẩu hợp lệ.</t>
-  </si>
-  <si>
-    <t>Nhập Họ hợp lệ, nhập tên hợp lệ,không nhập 
-Địa chỉ email, nhập Mật khẩu hợp lệ.</t>
-  </si>
-  <si>
-    <t>Nhập Họ hợp lệ, nhập tên hợp lệ, nhập Địa chỉ email, nhập Mật khẩu chỉ gồm 1 kí tự.</t>
-  </si>
-  <si>
-    <t>Nhập Họ hợp lệ, nhập tên gồm 1 ký tự, nhập 
-Địa chỉ email hợp lệ, nhập Mật khẩu hợp lệ.</t>
-  </si>
-  <si>
     <t>Nhập Họ hợp lệ, nhập tên hợp lệ, Nhập email hợp lệ, Nhập mật khẩu 50 ký tự( giá trị tối đa).</t>
   </si>
   <si>
     <t>Nhập Họ hợp lệ, nhập tên hợp lệ, Nhập email hợp lệ, Nhập mật khẩu 6 ký tự( giá trị tối thiểu).</t>
   </si>
   <si>
-    <t>Nhập Họ  có khoảng trống trước sau, nhập tên hợp lệ, Nhập địa chỉ email hợp lệ, Nhập mật khẩu hợp lệ.</t>
-  </si>
-  <si>
     <t>Nhập Họ hợp lệ, nhập tên hợp lệ, Nhập sai địa chỉ email , Nhập mật khẩu hợp lệ.</t>
   </si>
   <si>
@@ -255,191 +203,14 @@
     <t>Kiểm tra menu đa cấp "DANH SÁCH SẢN PHẨM" có hoạt động không.</t>
   </si>
   <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng kí.
-B3: Bỏ trống trường Họ
-B4: Nhập tên: Minh Nguyệt.
-B5: Nhập email: hoangminhnguyet10122277@gmail.com
-B6: Nhập mật khẩu: 1424Nguyet@
-B7: Nhấn "Đăng ký".
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng kí.
-B3: Nhập Họ: Hoàng 
-B4: Nhập tên: Minh Nguyệt.
-B5: Nhập email: hoangminhnguyet10122277@gmail.com
-B6: Nhập mật khẩu: 1424Nguyet@
-B7: Nhấn "Đăng ký".
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng kí.
-B3:Nhập Họ: Hoàng 
-B4: Nhập tên: Minh Nguyệt.
-B5: Bỏ trống trường email
-B6: Nhập mật khẩu: 1424Nguyet@
-B7: Nhấn "Đăng ký".
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng kí.
-B3:Nhập Họ: Hoàng 
-B4: Nhập tên: Minh Nguyệt.
-B5: Nhập email: haongminhnguyet10122277@gmail.com
-B6: Không nhập mật khẩu
-B7: Nhấn "Đăng ký".
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng kí.
-B3:Không nhập trường Họ 
-B4: Không nhập trường tên
-B5: Không nhập email
-B6: Không nhập mật khẩu
-B7: Nhấn "Đăng ký".
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng kí.
-B3: Nhập Họ :hoàng@
-B4: Nhập tên: Minh Nguyệt
-B5: Nhập Địa chỉ email: hoangminhnguyet10122277@gmail.com
-B6: Nhập mật khẩu: 1424Nguyet@
-B7: Nhấn "Đăng ký".
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng kí.
-B3: Nhập Họ: @@
-B4: Nhập tên: Minh Nguyệt
-B5: Nhập Địa chỉ email: hoangminhnguyet10122277@gmail.com
-B6: Nhập mật khẩu: 1424Nguyet@
-B7: Nhấn "Đăng ký".
-</t>
-  </si>
-  <si>
-    <t>Nhập Họ chỉ gồm số, nhập tên hợp lệ, nhập Địa chỉ email, nhập Mật khẩu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng kí.
-B3: Nhập Họ: 14241424
-B4: Nhập tên: Minh Nguyệt
-B5: Nhập Địa chỉ email: hoangminhnguyet10122277@gmail.com
-B6: Nhập mật khẩu: 1424Nguyet@
-B7: Nhấn "Đăng ký".
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng kí.
-B3: Nhập Họ: Hoàng
-B4: Nhập tên: Minh Nguyệt
-B5: Bỏ trống trường  email.
-B6: Nhập mật khẩu: 1424Nguyet@
-B7: Nhấn "Đăng ký".
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng kí.
-B3: Nhập Họ: Hoàng
-B4: Bỏ trống trường tên
-B5: Nhập email: hoangminhnguyet10122277@gmail.com
-B6: Nhập mật khẩu: 1424Nguyet@
-B7: Nhấn "Đăng ký".
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng kí.
-B3: Nhập Họ: Hoàng
-B4: Nhập tên: Minh Nguyệt
-B5: Nhập email: hoangminhnguyet10122277@gmail.com
-B6: Bỏ trống trường mật khẩu
-B7: Nhấn "Đăng ký".
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng kí.
-B3: Nhập Họ: Hoàng
-B4: Nhập tên: Minh Nguyệt
-B5: Nhập email: hoangminhnguyet10122277@gmail.com
-B6:Nhập mật khẩu gồm 1 ký tự: a
-B7: Nhấn "Đăng ký".
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng kí.
-B3: Nhập Họ: Hoàng
-B4: Nhập tên: a
-B5: Nhập email: hoangminhnguyet10122277@gmail.com
-B6:Nhập mật khẩu gồm 1 ký tự: 1424Nguyet
-B7: Nhấn "Đăng ký".
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chức năng tìm kiếm </t>
-  </si>
-  <si>
-    <t>Nhập từ khóa tìm kiếm hợp lệ</t>
   </si>
   <si>
     <t>Người dùng phải đăng nhập vào hệ 
 thống thành công hiển thị giao diện Trang chủ.</t>
   </si>
   <si>
-    <t xml:space="preserve">B1 :Hiển thị giao diện Trang chủ.
-B2: Hiển thị giao diện Đăng nhập.
-B4: Hiển thị giao diện kết quả tìm kiếm với nội dung tìm kiếm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Không nhập từ khóa tìm kiếm </t>
-  </si>
-  <si>
-    <t>Nhập từ khóa tìm kiếm không có
- trong tên các sản phẩm trong website.</t>
-  </si>
-  <si>
-    <t>B1 :Hiển thị giao diện Trang chủ.
-B2: Hiển thị giao diện Đăng nhập.
-B4: Thông báo: "Không tìm thấy bất kỳ kết quả nào với từ khóa "gà".</t>
-  </si>
-  <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tìm kiếm với ký tự đặc biệt </t>
-  </si>
-  <si>
-    <t>Tìm kiếm với chuỗi ký tự dài</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập từ khóa không dấu </t>
-  </si>
-  <si>
-    <t>Nhập từ khóa 1 ký tự</t>
-  </si>
-  <si>
-    <t>Nhập khoảng trắng trước và sau
- từ khóa</t>
-  </si>
-  <si>
-    <t>Nhập nhiều khoảng trắng giữa các từ</t>
-  </si>
-  <si>
-    <t>B1 :Hiển thị giao diện Trang chủ.
-B2: Hiển thị giao diện Đăng nhập.
-B4: Hiển thị giao diện Thông tin tài khoản.</t>
   </si>
   <si>
     <t>B1 :Hiển thị giao diện Trang chủ.
@@ -447,26 +218,12 @@
 B4: Hiển thị giao diện Trang chủ</t>
   </si>
   <si>
-    <t>Kiểm tra link "Trang chủ"
- có hoạt động đúng không?</t>
-  </si>
-  <si>
     <t>Kiểm tra Back to Top Button có hoạt động không?</t>
   </si>
   <si>
     <t>B1 :Hiển thị giao diện Trang chủ.
 B2: Hiển thị giao diện Đăng nhập.
 B4: Trở lại đầu trang web.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng kí.
-B3: Nhập Họ và tên: Hoàng Minh Nguyệt 
-B4: Nhập Địa chỉ email: hoangminhnguyet10122277@gmail.com
-B5: Nhập mật khẩu: 1424Nguyet@
-B6: Nhập lại mật khẩu: 1424Nguyet@
-B7: Nhấn "Đăng ký".
-</t>
   </si>
   <si>
     <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
@@ -542,79 +299,6 @@
   <si>
     <t>B1: Truy cập vào website https://sachtaodan.vn/
 B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
-B3: Không nhập từ khóa tìm kiếm
-B4: Ấn Enter</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
-B3: Nhập từ khóa tìm kiếm: gà
-B4: Ấn Enter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1 :Hiển thị giao diện Trang chủ.
-B2: Hiển thị giao diện Đăng nhập.
-B4: Hiển thị các sản phẩm có trong giỏ hàng </t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://combhttps://sachtaodan.vn/
-B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
-B3: Nhập từ khóa tìm kiếm: !
-B4: Ấn Enter</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
-B3: Nhập từ khóa tìm kiếm:Sách bài cứng
-B4: Ấn Enter</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
-B3: Nhập từ khóa tìm kiếm:hoi uc
-B4: Ấn Enter</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
-B3: Nhập từ khóa tìm kiếm: h
-B4: Ấn Enter</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://combi.com.vn/
-B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
-B3: Nhập từ khóa tìm kiếm:    sách
-B4: Ấn Enter</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://combi.com.vn/
-B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
-B3: Nhập từ khóa tìm kiếm:  hồi   ức 
-B4: Ấn Enter</t>
-  </si>
-  <si>
-    <t>Kiểm tra link "Tài khoản "
- có hoạt động đúng không?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
-B3: Vào tìm kiếm
-B4: Ấn Tài khoản </t>
-  </si>
-  <si>
-    <t>Kiểm tra link "Thoát"
- có hoạt động đúng không?</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
-B3: Vào tìm kiếm
-B4: Ấn Thoát</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
 B3: Vào tìm kiếm
 B4: Ấn Trang chủ</t>
   </si>
@@ -712,60 +396,9 @@
 B7: Hiển thị giao diện Trang chủ</t>
   </si>
   <si>
-    <t xml:space="preserve">B1: Hiển thị trang chủ Sách Tao Đàn  
-B2: Hiển thị giao diện Đăng kí.
-B7: Thông báo lỗi và yêu cầu nhập lại.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Hiển thị trang chủ Sách Tao Đàn  
-B2: Hiển thị giao diện Đăng kí.
-B7: Hiển thị giao diện Trang chủ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Hiển thị trang chủ Sách Tao Đàn  
-B2: Thông báo "Vui lòng nhập email".
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Hiển thị trang chủ Sách Tao Đàn  
-B2: Thông báo "Vui lòng nhập tên".
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Hiển thị trang chủ Sách Tao Đàn  
-B2: Thông báo "Vui lòng nhập mật khẩu".
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Hiển thị trang chủ Sách Tao Đàn  
-B2: Thông báo " Mật khẩu dài từ 6 đến 50 ký tự".
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">B1:Hiển thị trang chủ Sách Tao Đàn  
 B2:Hiển thị giao diện Đăng kí.
 B7: Thông báo "Email đã tồn tại ". </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Hiển thị trang chủ Sách Tao Đàn  
-B7: Thông báo " Mật khẩu dài từ 6 đến 50 ký tự".
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Hiển thị trang chủ Sách Tao Đàn  
-B7: Thông báo "Vui lòng nhập mật khẩu".
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Hiển thị trang chủ Sách Tao Đàn  
-B7: Thông báo "Vui lòng nhập tên".
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Hiển thị trang chủ Sách Tao Đàn  
-B7: Thông báo "Vui lòng nhập email".
-</t>
   </si>
   <si>
     <t>B1:Hiển thị trang chủ Sách Tao Đàn  
@@ -811,32 +444,6 @@
     <t>TC1-14</t>
   </si>
   <si>
-    <t>B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng nhập nếu đã đăng kí tài khoản hoặc đăng kí nếu chưa từng đăng kí hệ thống.
-B3: Nhập từ khóa tìm kiếm "Sách hay"  vào ô tìm kiếm
-B4: Ấn Enter hoặc icon Tìm kiếm.</t>
-  </si>
-  <si>
-    <t>B1 :Hiển thị giao diện Trang chủ.
-B2: Hiển thị giao diện Đăng nhập.
-B4: Hiển thị giao diện kết quả tìm kiếm với nội dung tìm kiếm (18 cuốn sách được tìm thấy)</t>
-  </si>
-  <si>
-    <t>B1 :Hiển thị giao diện Trang chủ.
-B2: Hiển thị giao diện Đăng nhập.
-B4: Vui lòng nhập từ khóa tìm kiếm.</t>
-  </si>
-  <si>
-    <t>B1 :Hiển thị giao diện Trang chủ.
-B2: Hiển thị giao diện Đăng nhập.
-B4: Hiển thị tất cả sách có trong cửa hàng.</t>
-  </si>
-  <si>
-    <t>B1 :Hiển thị giao diện Trang chủ.
-B2: Hiển thị giao diện Đăng nhập.
-B4: Thông báo: "Không tìm thấy bất kỳ kết quả nào với từ khóa "gà" .</t>
-  </si>
-  <si>
     <t>Người dùng đang ở giao diện 
 Đăng nhập</t>
   </si>
@@ -858,52 +465,24 @@
     <t>TC2-01</t>
   </si>
   <si>
-    <t>Không nhập Email, không 
-nhập Mật khẩu</t>
-  </si>
-  <si>
-    <t>Người dùng đã đăng ký tài
- khoản hệ thống</t>
-  </si>
-  <si>
     <t>TC2-02</t>
   </si>
   <si>
-    <t>Nhập Email, nhập Mật khẩu</t>
-  </si>
-  <si>
     <t>TC2-03</t>
   </si>
   <si>
-    <t>Nhập sai Email, nhập Mật
- khẩu</t>
-  </si>
-  <si>
     <t>TC2-04</t>
   </si>
   <si>
-    <t>Nhập Email, nhập sai  Mật
- khẩu</t>
-  </si>
-  <si>
     <t>TC2-05</t>
   </si>
   <si>
-    <t xml:space="preserve">Bỏ trống Email, nhập mật khẩu </t>
-  </si>
-  <si>
     <t>TC2-06</t>
   </si>
   <si>
-    <t xml:space="preserve">Nhập Email, không nhập mật khẩu </t>
-  </si>
-  <si>
     <t>TC2-07</t>
   </si>
   <si>
-    <t>Nhập email thừa 1 @, nhập mật khẩu hợp lệ.</t>
-  </si>
-  <si>
     <t>TC2-08</t>
   </si>
   <si>
@@ -935,117 +514,11 @@
   </si>
   <si>
     <t>TC2-15</t>
-  </si>
-  <si>
-    <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
-B2:Hiển thị giao diện Đăng nhập.
-B5:Thông báo "Vui lòng nhập Email
-                      Vui lòng nhập Mật khẩu".</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng nhập.
-B3: Bỏ trống email.
-B4: Bỏ trống mật khẩu.
-B5: Ấn Đăng nhập.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng nhập.
-B3: Nhập Email: hoangminhnguyet10122277@gmail.com
-B4: Nhập mật khẩu: 1424Nguyet@
-B5: Ấn Đăng nhập.
-</t>
-  </si>
-  <si>
-    <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
-B2:Hiển thị giao diện Đăng nhập.
-B5:Hiển thị giao diện Thông tin tài khoản.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng nhập.
-B3: Nhập sai email: hoangminhnguyet101222@gmail.com
-B4: Nhập mật khẩu: 1424Nguyet@
-B5: Ấn Đăng nhập.
-</t>
-  </si>
-  <si>
-    <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
-B2:Hiển thị giao diện Đăng nhập.
-B5:Thông báo lỗi " Thông tin đăng nhập không chính xác".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1:Hiển thị trang chủ Sách Tao Đàn. 
-B2:Hiển thị giao diện Đăng nhập.
-B5:Thông báo lỗi "Email không chính xác" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng nhập.
-B3: Nhập email: hoangminhnguyet10122277@gmail.com
-B4: Nhập mật khẩu: 111111
-B5: Ấn Đăng nhập.
-</t>
   </si>
   <si>
     <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
 B2:Hiển thị giao diện Đăng nhập.
 B5:Thông báo lỗi và yêu cầu nhập lại</t>
-  </si>
-  <si>
-    <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
-B2:Hiển thị giao diện Đăng nhập.
-B5:Thông báo lỗi "Mật khẩu sai vui lòng nhập lại".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng nhập.
-B3: Bỏ trống email
-B4: Nhập mật khẩu:1424Nguyet@
-B5: Ấn Đăng nhập.
-</t>
-  </si>
-  <si>
-    <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
-B2:Hiển thị giao diện Đăng nhập.
-B5:Thông báo lỗi "Thông tin đăng nhập không chính xác".</t>
-  </si>
-  <si>
-    <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
-B2:Hiển thị giao diện Đăng nhập.
-B5:Thông báo lỗi "Vui lòng nhập Email".</t>
-  </si>
-  <si>
-    <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
-B2:Hiển thị giao diện Đăng nhập.
-B5:Thông báo lỗi "Vui lòng nhập mật khẩu".</t>
-  </si>
-  <si>
-    <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
-B2:Hiển thị giao diện Đăng nhập.
-B5:Thông báo lỗi  "A part folowing '@' should not contain the symbol '@'.</t>
-  </si>
-  <si>
-    <t>B1:Hiển thị trang chủ Sách Tao Đàn. 
-B2:Hiển thị giao diện Đăng nhập.
-B5:Thông báo lỗi thông báo "A part folowing '@' should not contain the symbol '@'.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website  https://sachtaodan.vn/
-B2: Chọn chức năng Đăng nhập.
-B3: Nhập email: hoangminhnguyet10122277@gmail.com
-B4: Bỏ trống mật khẩu.
-B5: Ấn Đăng nhập.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
-B2: Chọn chức năng Đăng nhập.
-B3: Nhập email: hoangminhnguyet10122277@@gmail.com
-B4: Nhập mật khẩu: 1424Nguyet@
-B5: Ấn Đăng nhập.
-</t>
   </si>
   <si>
     <t xml:space="preserve">B1: Truy cập vào website https://sachtaodan.vn/
@@ -1670,9 +1143,6 @@
     <t>Bỏ qua chọn Tỉnh nhưng nhập các thông tin khác</t>
   </si>
   <si>
-    <t>Hiển thị lỗi: “Vui lòng chọn Tỉnh/Thành”</t>
-  </si>
-  <si>
     <t>TC_ORDER_004</t>
   </si>
   <si>
@@ -1685,9 +1155,6 @@
     <t>Bỏ qua chọn Quận</t>
   </si>
   <si>
-    <t>Hiển thị lỗi: “Vui lòng chọn Quận/Huyện”</t>
-  </si>
-  <si>
     <t>TC_ORDER_005</t>
   </si>
   <si>
@@ -1700,364 +1167,540 @@
     <t>Bỏ qua chọn Xã</t>
   </si>
   <si>
-    <t>Hiển thị lỗi: “Vui lòng chọn Xã/Phường”</t>
+    <t>Mã giảm giá không hợp lệ</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi nhập mã sai</t>
+  </si>
+  <si>
+    <t>Nhập mã ABC123</t>
+  </si>
+  <si>
+    <t>Thiếu số điện thoại</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi bỏ trống SĐT</t>
+  </si>
+  <si>
+    <t>Không nhập SĐT</t>
+  </si>
+  <si>
+    <t>Thiếu địa chỉ</t>
+  </si>
+  <si>
+    <t>Kiểm tra bắt buộc nhập địa chỉ cụ thể</t>
+  </si>
+  <si>
+    <t>Không nhập địa chỉ chi tiết</t>
+  </si>
+  <si>
+    <t>Email sai định dạng</t>
+  </si>
+  <si>
+    <t>Không chọn phương thức thanh toán</t>
+  </si>
+  <si>
+    <t>Kiểm tra bắt buộc chọn phương thức</t>
+  </si>
+  <si>
+    <t>Bỏ chọn phương thức thanh toán</t>
+  </si>
+  <si>
+    <t>TC3-15</t>
+  </si>
+  <si>
+    <t>TC3-16</t>
+  </si>
+  <si>
+    <t>TC3-17</t>
+  </si>
+  <si>
+    <t>TC3-18</t>
+  </si>
+  <si>
+    <t>TC3-19</t>
+  </si>
+  <si>
+    <t>TC3-20</t>
+  </si>
+  <si>
+    <t>TC3-21</t>
+  </si>
+  <si>
+    <t>TC3-22</t>
+  </si>
+  <si>
+    <t>TC3-23</t>
+  </si>
+  <si>
+    <t>TC3-24</t>
+  </si>
+  <si>
+    <t>TC3-25</t>
+  </si>
+  <si>
+    <t>TC3-26</t>
+  </si>
+  <si>
+    <t>TC3-27</t>
+  </si>
+  <si>
+    <t>Tên test casse</t>
+  </si>
+  <si>
+    <t>Tên test case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra người dùng đăng nhập thành công </t>
+  </si>
+  <si>
+    <t>Tài khoản hợp lệ đã được tạo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Nhập email hợp lệ
+vd: hoangminhnguyet10122277@gmail.com
+2. Nhập mật khẩu
+vd: 1424Nguyet
+3. Nhấn Đăng nhập </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập thành công đến trang thông tin tài khoản </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập sai email </t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể đăng nhập thành công.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra thông báo lỗi khi 
+nhập sai email </t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị giao diện Đăng nhập</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Nhập email 
+vd: hoangminhnguyet10122212@gmail.com
+2. Nhập mật khẩu
+vd: 1424Nguyet
+3. Nhấn Đăng nhập </t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo "Thông tin đăng nhập không chính xác."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập sai mật khẩu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Nhập email 
+vd: hoangminhnguyet10122277@gmail.com
+2. Nhập mật khẩu
+vd: 1424Nguyet@@
+3. Nhấn Đăng nhập </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bỏ trống email </t>
+  </si>
+  <si>
+    <t>Kiểm tra thông báo lỗi khi bỏ trống email.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra thông báo lỗi khi nhập  sai mật khẩu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Bỏ trống Email
+2. Nhập mật khẩu
+vd: 1424Nguyet
+3. Nhấn Đăng nhập </t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo "Vui lòng nhập Email."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bỏ trống mật khẩu </t>
+  </si>
+  <si>
+    <t>Kiểm tra thông báo lỗi khi bỏ trống mật khẩu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Nhập email 
+vd: hoangminhnguyet10122277@gmail.com
+2. bỏ trống mật khẩu
+3. Nhấn Đăng nhập </t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo "Vui lòng nhập Mật khẩu."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bỏ trống email và mật khẩu </t>
+  </si>
+  <si>
+    <t>Kiểm tra khi người dùng không nhập email và mật khẩu</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập Email</t>
+  </si>
+  <si>
+    <t>Nhập sai định dạng email</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống khi nhập sai định dạng email</t>
+  </si>
+  <si>
+    <t>1. Bỏ trống Email
+2. Bỏ trống Mật khẩu
+3. Nhấn Đăng nhập</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập Email | 
+Vui lòng nhập Mật khẩu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vui lòng nhập Email </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Nhập email sai định dạng: hoangminhnguyet10122277gail.com
+2. Nhập mật khẩu: 1424Nguyet
+3. Nhấn Đăng nhập
+</t>
+  </si>
+  <si>
+    <t>Thông tin đăng nhập không chính xác.</t>
+  </si>
+  <si>
+    <t>Đăng nhập với email viết hoa</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống có phân biệt viết hoa viết thường trong email không</t>
+  </si>
+  <si>
+    <t>1. Nhập email: hoangminhnguyet10122277@GMAIL.COM
+2. Nhập mật khẩu: 1424Nguyet
+3. Nhấn Đăng nhập</t>
+  </si>
+  <si>
+    <t>Đăng nhập thành công đến trang thông tin tài khoản</t>
+  </si>
+  <si>
+    <t>KTTD</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập Mật khẩu</t>
+  </si>
+  <si>
+    <t>Thiếu mật khẩu</t>
+  </si>
+  <si>
+    <t>Thiếu email</t>
+  </si>
+  <si>
+    <t>Thiếu email và mật khẩu</t>
+  </si>
+  <si>
+    <t>Thiếu tất cả thông tin</t>
+  </si>
+  <si>
+    <t>Thiếu tên</t>
+  </si>
+  <si>
+    <t>Mật khẩu quá ngắn</t>
+  </si>
+  <si>
+    <t>Email không hợp lệ</t>
+  </si>
+  <si>
+    <t>Email đã tồn tại</t>
+  </si>
+  <si>
+    <t>Thiếu họ và tên</t>
+  </si>
+  <si>
+    <t>Thiếu họ</t>
+  </si>
+  <si>
+    <t>Mật khẩu quá dài</t>
+  </si>
+  <si>
+    <t>Thiếu họ, tên và email (mật khẩu quá dài)</t>
+  </si>
+  <si>
+    <t>Thiếu tất cả thông tin, mật khẩu ngắn</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi người dùng không nhập mật khẩu</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi người dùng không nhập email</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi để trống toàn bộ thông tin</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi không nhập tên</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi mật khẩu nhỏ hơn 6 ký tự</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi email có định dạng không hợp lệ (2 ký tự @)</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi email dùng tên miền không hợp lệ</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi email đã được đăng ký</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi không nhập họ và tên</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi không nhập họ</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi mật khẩu vượt quá 50 ký tự</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi không nhập họ, tên và email + mật khẩu vượt 50 ký tự</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi để trống hết và mật khẩu ngắn</t>
+  </si>
+  <si>
+    <t>Người dùng ở trang đăng ký</t>
+  </si>
+  <si>
+    <t>1. Truy cập trang đăng ký
+2. Nhập họ: Lưu
+3. Nhập tên: Hoa
+4. Nhập email: Luuhoa1424@gmail.com
+5. Để trống mật khẩu
+6. Nhấn nút Đăng ký</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Truy cập trang đăng ký
+2. Nhập họ: Hoàng
+3. Nhập tên: Duyên
+4. Nhập mật khẩu: 2206Duyen@!
+5. Để trống email
+6. Nhấn Đăng ký
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Truy cập trang đăng ký
+2. Nhập họ: Hoàng
+3. Nhập tên: Bảo
+4. Để trống email và mật khẩu
+5. Nhấn Đăng ký
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Truy cập trang đăng ký
+2. Để trống tất cả các trường
+3. Nhấn Đăng ký
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Truy cập trang đăng ký
+2. Nhập họ: Nguyễn
+3. Nhập email: nguyenvanhung@gmail.com
+4. Nhập mật khẩu: hunghoaa123
+5. Để trống tên
+6. Nhấn Đăng ký
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Truy cập trang đăng ký
+2. Nhập họ: Be
+3. Nhập tên: con
+4. Nhập email: doraemon@gmail.com
+5. Nhập mật khẩu: 1.0
+6. Nhấn Đăng ký
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Truy cập trang đăng ký
+2. Nhập họ: Nguyen
+3. Nhập tên: Dung
+4. Nhập email: hoangminhnguyet10122277@@gmail.com
+5. Nhập mật khẩu: 12dung@!hhdh
+6. Nhấn Đăng ký</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Truy cập trang đăng ký
+2. Nhập họ: Nguyen
+3. Nhập tên: Hoa
+4. Nhập email: hoangminhnguyet10122277@123.123
+5. Nhập mật khẩu: 14142hoa!
+6. Nhấn Đăng ký
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Truy cập trang đăng ký
+2. Nhập họ: hoang
+3. Nhập tên: thuyduyen
+4. Nhập email: hoangminhnguyet10122277@gmail.com
+5. Nhập mật khẩu: 1424Nguyett@
+6. Nhấn Đăng ký
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Truy cập trang đăng ký
+2. Nhập mật khẩu: 1424Nguyett@
+3. Nhấn Đăng ký
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Truy cập trang đăng ký
+2. Nhập họ: hoàng
+3. Để trống tên và email
+4. Nhập mật khẩu: 1424Nguyett@
+5. Nhấn Đăng ký
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Truy cập trang đăng ký
+2. Nhập họ: hoàng
+3. Nhập tên: hoàng
+4. Nhập email: hoangminhnguyet101222717@gmail.com
+5. Nhập mật khẩu: P@ssw0rd...60 ký tự
+6. Nhấn Đăng ký
+</t>
+  </si>
+  <si>
+    <t>1. Truy cập trang đăng ký
+2. Để trống họ, tên, email
+3. Nhập mật khẩu: P@ssw0rd...60 ký tự
+4. Nhấn Đăng ký</t>
+  </si>
+  <si>
+    <t>1. Truy cập trang đăng ký
+2. Để trống họ, tên, email
+3. Nhập mật khẩu: q1
+4. Nhấn Đăng ký</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập Email | Vui lòng nhập Mật khẩu</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập Email | Vui lòng nhập Mật khẩu | Vui lòng nhập Tên</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập Tên</t>
+  </si>
+  <si>
+    <t>Mật khẩu dài từ 6 đến 50 ký tự</t>
+  </si>
+  <si>
+    <t>Email không đúng định dạng</t>
+  </si>
+  <si>
+    <t>Email không hợp lệ.</t>
+  </si>
+  <si>
+    <t>Email đã tồn tại.</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập Email | Vui lòng nhập Tên</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập Email | Mật khẩu dài từ 6 đến 50 ký tự | Vui lòng nhập Tên</t>
+  </si>
+  <si>
+    <t>recaptcha token empty</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập Email | Mật khẩu dài từ 6 đến 50 ký tự</t>
+  </si>
+  <si>
+    <t>gà</t>
+  </si>
+  <si>
+    <t>!$&amp;^%$##</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Trùng Hưng Thuở Ấy [Bìa mềm] - Tô Như</t>
+  </si>
+  <si>
+    <t>hoi uc</t>
+  </si>
+  <si>
+    <t>hồi   ức</t>
+  </si>
+  <si>
+    <t>HỒI ỨC</t>
+  </si>
+  <si>
+    <t>sách</t>
+  </si>
+  <si>
+    <t>hồi_ức</t>
+  </si>
+  <si>
+    <t>Test Case Description (từ khóa)</t>
+  </si>
+  <si>
+    <t>Tìm thấy</t>
+  </si>
+  <si>
+    <t>Không tìm thấy kết quả phù hợp với từ khóa "gà"</t>
+  </si>
+  <si>
+    <t>Không tìm thấy kết quả phù hợp với từ khóa "hồi_ức"</t>
+  </si>
+  <si>
+    <t>Không tìm thấy kết quả phù hợp với từ khóa "123456.0"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hệ thống hiển thị giao diện trang chủ </t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>123456.0</t>
+  </si>
+  <si>
+    <t>1. Nhập từ khóa tìm kiếm.             2 Ấn Tìm kiếm</t>
+  </si>
+  <si>
+    <t>Bạn chưa chọn tỉnh thành Bạn chưa chọn quận huyện Bạn chưa chọn phường xã</t>
+  </si>
+  <si>
+    <t>Bạn chưa chọn quận huyện  Bạn chưa chọn phường xã</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bạn chưa chọn phường xã</t>
+  </si>
+  <si>
+    <t>Mã khuyến mãi không hợp lệ</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập số điện thoạ</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập địa chỉ</t>
+  </si>
+  <si>
+    <t>Bạn cần chọn phương thức thanh toán</t>
+  </si>
+  <si>
+    <t>TC_ORDER_002</t>
   </si>
   <si>
     <t>TC_ORDER_006</t>
   </si>
   <si>
-    <t>Ghi chú quá dài</t>
-  </si>
-  <si>
-    <t>Kiểm tra khi ghi chú vượt quá giới hạn (300 ký tự)</t>
-  </si>
-  <si>
-    <t>Nhập ghi chú &gt; 300 ký tự</t>
-  </si>
-  <si>
-    <t>Hiển thị lỗi hoặc tự động cắt chuỗi</t>
-  </si>
-  <si>
-    <t>TC_ORDER_007</t>
-  </si>
-  <si>
-    <t>Mã giảm giá hợp lệ</t>
-  </si>
-  <si>
-    <t>Kiểm tra mã giảm giá hợp lệ</t>
-  </si>
-  <si>
-    <t>Nhập mã SALE20</t>
-  </si>
-  <si>
-    <t>Áp dụng giảm giá đúng số tiền hoặc phần trăm</t>
-  </si>
-  <si>
-    <t>TC_ORDER_008</t>
-  </si>
-  <si>
-    <t>Mã giảm giá không hợp lệ</t>
-  </si>
-  <si>
-    <t>Kiểm tra khi nhập mã sai</t>
-  </si>
-  <si>
-    <t>Nhập mã ABC123</t>
-  </si>
-  <si>
-    <t>Hiển thị lỗi: “Mã giảm giá không hợp lệ”</t>
-  </si>
-  <si>
-    <t>TC_ORDER_009</t>
-  </si>
-  <si>
-    <t>Thiếu số điện thoại</t>
-  </si>
-  <si>
-    <t>Kiểm tra khi bỏ trống SĐT</t>
-  </si>
-  <si>
-    <t>Không nhập SĐT</t>
-  </si>
-  <si>
-    <t>Hiển thị lỗi: “Vui lòng nhập số điện thoại”</t>
-  </si>
-  <si>
-    <t>TC_ORDER_010</t>
-  </si>
-  <si>
-    <t>Thiếu địa chỉ</t>
-  </si>
-  <si>
-    <t>Kiểm tra bắt buộc nhập địa chỉ cụ thể</t>
-  </si>
-  <si>
-    <t>Không nhập địa chỉ chi tiết</t>
-  </si>
-  <si>
-    <t>Hiển thị lỗi: “Vui lòng nhập địa chỉ”</t>
-  </si>
-  <si>
-    <t>TC_ORDER_011</t>
-  </si>
-  <si>
-    <t>SĐT không hợp lệ</t>
-  </si>
-  <si>
-    <t>Kiểm tra định dạng số điện thoại</t>
-  </si>
-  <si>
-    <t>Nhập sđt sai: 123abc, 0000</t>
-  </si>
-  <si>
-    <t>Hiển thị lỗi: “Số điện thoại không hợp lệ”</t>
-  </si>
-  <si>
-    <t>TC_ORDER_012</t>
-  </si>
-  <si>
-    <t>Email sai định dạng</t>
-  </si>
-  <si>
-    <t>Kiểm tra định dạng email</t>
-  </si>
-  <si>
-    <t>Nhập email sai: abc@.com</t>
-  </si>
-  <si>
-    <t>Hiển thị lỗi: “Email không hợp lệ”</t>
-  </si>
-  <si>
-    <t>TC_ORDER_013</t>
-  </si>
-  <si>
-    <t>Không chọn phương thức thanh toán</t>
-  </si>
-  <si>
-    <t>Kiểm tra bắt buộc chọn phương thức</t>
-  </si>
-  <si>
-    <t>Bỏ chọn phương thức thanh toán</t>
-  </si>
-  <si>
-    <t>Hiển thị lỗi: “Vui lòng chọn phương thức thanh toán”</t>
-  </si>
-  <si>
-    <t>TC_ORDER_014</t>
-  </si>
-  <si>
-    <t>Sản phẩm hết hàng</t>
-  </si>
-  <si>
-    <t>Kiểm tra xử lý khi sản phẩm trong giỏ đã hết hàng</t>
-  </si>
-  <si>
-    <t>Thêm sản phẩm hết hàng → giỏ → đặt hàng</t>
-  </si>
-  <si>
-    <t>Hiển thị lỗi hoặc loại sản phẩm khỏi đơn hàng</t>
-  </si>
-  <si>
-    <t>TC_ORDER_015</t>
-  </si>
-  <si>
-    <t>Reload giữa chừng</t>
-  </si>
-  <si>
-    <t>Kiểm tra khi reload trang đặt hàng</t>
-  </si>
-  <si>
-    <t>Nhập thông tin giữa chừng → F5</t>
-  </si>
-  <si>
-    <t>Cảnh báo mất dữ liệu hoặc giữ nguyên form</t>
-  </si>
-  <si>
-    <t>TC_ORDER_016</t>
-  </si>
-  <si>
-    <t>Bỏ trống toàn bộ</t>
-  </si>
-  <si>
-    <t>Kiểm tra các trường bắt buộc</t>
-  </si>
-  <si>
-    <t>Click “Đặt hàng” khi chưa nhập gì</t>
-  </si>
-  <si>
-    <t>Hiển thị lỗi tất cả trường bắt buộc</t>
-  </si>
-  <si>
-    <t>TC_ORDER_017</t>
-  </si>
-  <si>
-    <t>Mã giảm giá hết hạn</t>
-  </si>
-  <si>
-    <t>Kiểm tra mã cũ</t>
-  </si>
-  <si>
-    <t>Nhập mã SALE2022</t>
-  </si>
-  <si>
-    <t>Hiển thị lỗi: “Mã giảm giá đã hết hạn”</t>
-  </si>
-  <si>
-    <t>TC_ORDER_018</t>
-  </si>
-  <si>
-    <t>Tài khoản chưa xác minh</t>
-  </si>
-  <si>
-    <t>Kiểm tra giới hạn khi tài khoản chưa xác minh email</t>
-  </si>
-  <si>
-    <t>Đăng nhập tài khoản chưa xác minh → đặt hàng</t>
-  </si>
-  <si>
-    <t>Hiển thị lỗi yêu cầu xác minh email</t>
-  </si>
-  <si>
-    <t>TC_ORDER_019</t>
-  </si>
-  <si>
-    <t>Đặt hàng nhiều sản phẩm</t>
-  </si>
-  <si>
-    <t>Kiểm tra xử lý nhiều sản phẩm trong đơn</t>
-  </si>
-  <si>
-    <t>Thêm 2–3 sản phẩm khác nhau → đặt hàng</t>
-  </si>
-  <si>
-    <t>Hiển thị đầy đủ sản phẩm và tổng giá đúng</t>
-  </si>
-  <si>
-    <t>TC_ORDER_020</t>
-  </si>
-  <si>
-    <t>Quay lại giỏ hàng từ checkout</t>
-  </si>
-  <si>
-    <t>Kiểm tra điều hướng và dữ liệu</t>
-  </si>
-  <si>
-    <t>Click “Quay lại giỏ hàng”</t>
-  </si>
-  <si>
-    <t>Quay lại đúng trang, giữ nguyên dữ liệu đã nhập</t>
-  </si>
-  <si>
-    <t>TC3-15</t>
-  </si>
-  <si>
-    <t>TC3-16</t>
-  </si>
-  <si>
-    <t>TC3-17</t>
-  </si>
-  <si>
-    <t>TC3-18</t>
-  </si>
-  <si>
-    <t>TC3-19</t>
-  </si>
-  <si>
-    <t>TC3-20</t>
-  </si>
-  <si>
-    <t>TC3-21</t>
-  </si>
-  <si>
-    <t>TC3-22</t>
-  </si>
-  <si>
-    <t>TC3-23</t>
-  </si>
-  <si>
-    <t>TC3-24</t>
-  </si>
-  <si>
-    <t>TC3-25</t>
-  </si>
-  <si>
-    <t>TC3-26</t>
-  </si>
-  <si>
-    <t>TC3-27</t>
-  </si>
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Mô tả</t>
-  </si>
-  <si>
-    <t>Kiểm tra</t>
-  </si>
-  <si>
-    <t>TC01</t>
-  </si>
-  <si>
-    <t>Mua hàng với tăng số lượng</t>
-  </si>
-  <si>
-    <t>Tăng số lượng lên 2 → Thêm vào giỏ → Kiểm tra số lượng</t>
-  </si>
-  <si>
-    <t>Sản phẩm có số lượng 2 trong giỏ</t>
-  </si>
-  <si>
-    <t>TC02</t>
-  </si>
-  <si>
-    <t>Mua hàng rồi đóng popup</t>
-  </si>
-  <si>
-    <t>Thêm sản phẩm → Đóng hộp thoại → Vào giỏ kiểm tra</t>
-  </si>
-  <si>
-    <t>Giỏ hàng vẫn có sản phẩm</t>
-  </si>
-  <si>
-    <t>TC03</t>
-  </si>
-  <si>
-    <t>Xóa sản phẩm khỏi giỏ</t>
-  </si>
-  <si>
-    <t>Thêm 1 sản phẩm → Vào giỏ → Xóa</t>
-  </si>
-  <si>
-    <t>Giỏ hàng trống</t>
-  </si>
-  <si>
-    <t>TC04</t>
-  </si>
-  <si>
-    <t>Mua hàng và tiến hành thanh toán ngay</t>
-  </si>
-  <si>
-    <t>Thêm → Tiến hành thanh toán ngay</t>
-  </si>
-  <si>
-    <t>Chuyển đến trang checkout</t>
-  </si>
-  <si>
-    <t>TC05</t>
-  </si>
-  <si>
-    <t>Điền đầy đủ thông tin và đặt hàng thành công</t>
-  </si>
-  <si>
-    <t>Đặt hàng với thông tin hợp lệ</t>
-  </si>
-  <si>
-    <t>Có thông báo đặt hàng thành công</t>
-  </si>
-  <si>
-    <t>TC06</t>
-  </si>
-  <si>
-    <t>Nhập mã giảm giá không hợp lệ</t>
-  </si>
-  <si>
-    <t>Nhập mã sai → Áp dụng</t>
-  </si>
-  <si>
-    <t>Có thông báo lỗi</t>
-  </si>
-  <si>
-    <t>TC07</t>
-  </si>
-  <si>
-    <t>Không nhập email → Đặt hàng</t>
-  </si>
-  <si>
-    <t>Thiếu email</t>
-  </si>
-  <si>
-    <t>Hiển thị lỗi yêu cầu</t>
+    <t>TC_ORDER_07</t>
+  </si>
+  <si>
+    <t>TC_ORDER_08</t>
   </si>
 </sst>
 </file>
@@ -2111,7 +1754,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2152,6 +1795,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="32"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2425,7 +2074,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2510,6 +2159,12 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2518,9 +2173,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2883,841 +2535,909 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="39.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="48.88671875" customWidth="1"/>
-    <col min="6" max="6" width="47.109375" customWidth="1"/>
-    <col min="9" max="9" width="39.109375" customWidth="1"/>
-    <col min="10" max="10" width="72.109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" customWidth="1"/>
+    <col min="6" max="6" width="48.88671875" customWidth="1"/>
+    <col min="7" max="7" width="47.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" customWidth="1"/>
+    <col min="11" max="11" width="72.109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
+    <row r="1" spans="1:14" ht="30">
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="8"/>
       <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="2"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="6"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="2"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
-      <c r="B3" s="11"/>
-      <c r="D3" s="42" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="11"/>
+      <c r="E3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="44"/>
+      <c r="G3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="2"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="8"/>
       <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="44"/>
+      <c r="G4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="2"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="8"/>
       <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="42" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="14">
+      <c r="F5" s="44"/>
+      <c r="G5" s="14">
         <v>45516</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="2"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="8"/>
       <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="3"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="14">
+      <c r="F6" s="44"/>
+      <c r="G6" s="14">
         <v>41985</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="2"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="8"/>
       <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="42" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="12"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="2"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="12"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="19"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="20">
+      <c r="G8" s="20">
         <v>24</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="6"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="I8" s="1"/>
+      <c r="J8" s="6"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="19"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="20">
-        <v>23</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="6"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="G9" s="20">
+        <v>23</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="6"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="11"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="13"/>
-      <c r="E10" s="22" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="13"/>
+      <c r="F10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>1</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="6"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" ht="30.6">
+      <c r="H10" s="6"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="6"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" ht="30.6">
       <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="D11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="E11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="F11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="G11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="H11" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="I11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="J11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="K11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="26"/>
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
-    </row>
-    <row r="12" spans="1:13" s="27" customFormat="1" ht="144">
+      <c r="N11" s="26"/>
+    </row>
+    <row r="12" spans="1:14" s="27" customFormat="1" ht="86.4">
       <c r="A12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="K12" s="35"/>
+    </row>
+    <row r="13" spans="1:14" ht="100.8">
+      <c r="A13" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="K13" s="36"/>
+    </row>
+    <row r="14" spans="1:14" ht="86.4">
+      <c r="A14" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="K14" s="36"/>
+    </row>
+    <row r="15" spans="1:14" ht="86.4">
+      <c r="A15" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="1:14" ht="115.2">
+      <c r="A16" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="K16" s="36"/>
+    </row>
+    <row r="17" spans="1:11" ht="115.2">
+      <c r="A17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="1:11" ht="115.2">
+      <c r="A18" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="K18" s="36"/>
+    </row>
+    <row r="19" spans="1:11" ht="129.6">
+      <c r="A19" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="K19" s="36"/>
+    </row>
+    <row r="20" spans="1:11" ht="126.6" customHeight="1">
+      <c r="A20" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="K20" s="36"/>
+    </row>
+    <row r="21" spans="1:11" ht="133.19999999999999" customHeight="1">
+      <c r="A21" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="K21" s="36"/>
+    </row>
+    <row r="22" spans="1:11" ht="86.4">
+      <c r="A22" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="1:11" ht="129.6">
+      <c r="A23" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="K23" s="36"/>
+    </row>
+    <row r="24" spans="1:11" ht="57.6">
+      <c r="A24" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="K24" s="36"/>
+    </row>
+    <row r="25" spans="1:11" ht="57.6">
+      <c r="A25" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="K25" s="36"/>
+    </row>
+    <row r="26" spans="1:11" ht="144">
+      <c r="A26" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="36"/>
+    </row>
+    <row r="27" spans="1:11" ht="158.4">
+      <c r="A27" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="36"/>
+    </row>
+    <row r="28" spans="1:11" ht="144">
+      <c r="A28" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="144">
+      <c r="A29" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="144">
+      <c r="A30" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="72">
+      <c r="A31" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="86.4">
+      <c r="A32" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="129.6">
+      <c r="A33" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="35"/>
-    </row>
-    <row r="13" spans="1:13" ht="144">
-      <c r="A13" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="1:13" ht="129.6">
-      <c r="A14" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" spans="1:13" ht="144">
-      <c r="A15" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="1:13" ht="129.6">
-      <c r="A16" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="1:10" ht="144">
-      <c r="A17" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="36"/>
-    </row>
-    <row r="18" spans="1:10" ht="144">
-      <c r="A18" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="36"/>
-    </row>
-    <row r="19" spans="1:10" ht="144">
-      <c r="A19" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="36"/>
-    </row>
-    <row r="20" spans="1:10" ht="126.6" customHeight="1">
-      <c r="A20" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" ht="133.19999999999999" customHeight="1">
-      <c r="A21" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="36"/>
-    </row>
-    <row r="22" spans="1:10" ht="144">
-      <c r="A22" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="36"/>
-    </row>
-    <row r="23" spans="1:10" ht="144">
-      <c r="A23" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="28" t="s">
+      <c r="D33" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="158.4">
+      <c r="A34" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="57.6">
+      <c r="A35" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="27" t="s">
         <v>59</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="36"/>
-    </row>
-    <row r="24" spans="1:10" ht="158.4">
-      <c r="A24" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="36"/>
-    </row>
-    <row r="25" spans="1:10" ht="144">
-      <c r="A25" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="36"/>
-    </row>
-    <row r="26" spans="1:10" ht="144">
-      <c r="A26" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" ht="158.4">
-      <c r="A27" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="36"/>
-    </row>
-    <row r="28" spans="1:10" ht="144">
-      <c r="A28" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="144">
-      <c r="A29" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="144">
-      <c r="A30" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="72">
-      <c r="A31" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="86.4">
-      <c r="A32" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="129.6">
-      <c r="A33" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="158.4">
-      <c r="A34" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="57.6">
-      <c r="A35" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="G12:G35">
+  <conditionalFormatting sqref="H12:H35">
     <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -3732,7 +3452,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{889156AC-2F61-4A4A-A2AB-6C02BE03346D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{889156AC-2F61-4A4A-A2AB-6C02BE03346D}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3742,616 +3462,702 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0FAF11-07EB-4276-B7AD-55C476EC9ED7}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.77734375" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="43.5546875" customWidth="1"/>
+    <col min="6" max="6" width="31.88671875" customWidth="1"/>
+    <col min="7" max="7" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="5"/>
-      <c r="B1" s="11"/>
-      <c r="D1" s="42" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="11"/>
+      <c r="E1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="32"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="H1" s="11"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="32"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="32"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="F2" s="44"/>
+      <c r="G2" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="32"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="42" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="14">
+      <c r="F3" s="44"/>
+      <c r="G3" s="14">
         <v>45516</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="H3" s="15"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="32"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="3"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="14">
+      <c r="F4" s="44"/>
+      <c r="G4" s="14">
         <v>41985</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="H4" s="16"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="32"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="42" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="12"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="F5" s="44"/>
+      <c r="G5" s="12"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="32"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="19"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="20">
+      <c r="G6" s="20">
         <v>17</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="32"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6" s="1"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="32"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="19"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="20">
+      <c r="G7" s="20">
         <v>14</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7" s="1"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="32"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="11"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="13"/>
-      <c r="E8" s="22" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
+      <c r="F8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>3</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="32"/>
-    </row>
-    <row r="9" spans="1:10" ht="30.6">
+      <c r="H8" s="6"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="32"/>
+    </row>
+    <row r="9" spans="1:11" ht="30.6">
       <c r="A9" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="D9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="E9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="F9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="G9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="H9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="I9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="J9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="K9" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="86.4">
+    <row r="10" spans="1:11" ht="72">
       <c r="A10" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>182</v>
+        <v>111</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>183</v>
+        <v>319</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>208</v>
+        <v>315</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>207</v>
+        <v>316</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="27"/>
+        <v>317</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>23</v>
+      </c>
       <c r="I10" s="27"/>
-      <c r="J10" s="32"/>
-    </row>
-    <row r="11" spans="1:10" ht="145.80000000000001" customHeight="1">
+      <c r="J10" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="K10" s="32"/>
+    </row>
+    <row r="11" spans="1:11" ht="145.80000000000001" customHeight="1">
       <c r="A11" s="27" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>185</v>
+        <v>318</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>183</v>
+        <v>320</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>209</v>
+        <v>321</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>210</v>
+        <v>322</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="27"/>
+        <v>323</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>23</v>
+      </c>
       <c r="I11" s="27"/>
-      <c r="J11" s="32"/>
-    </row>
-    <row r="12" spans="1:10" ht="115.2">
+      <c r="J11" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="K11" s="32"/>
+    </row>
+    <row r="12" spans="1:11" ht="72">
       <c r="A12" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>187</v>
+        <v>113</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>324</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>183</v>
+        <v>328</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>212</v>
+        <v>325</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="G12" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="27"/>
+      <c r="J12" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="K12" s="32"/>
+    </row>
+    <row r="13" spans="1:11" ht="57.6">
+      <c r="A13" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="K13" s="32"/>
+    </row>
+    <row r="14" spans="1:11" ht="57.6">
+      <c r="A14" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="K14" s="32"/>
+    </row>
+    <row r="15" spans="1:11" ht="43.2">
+      <c r="A15" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" spans="1:11" ht="72">
+      <c r="A16" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="K16" s="32"/>
+    </row>
+    <row r="17" spans="1:11" ht="57.6">
+      <c r="A17" s="27"/>
+      <c r="B17" t="s">
+        <v>345</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="K17" s="32"/>
+    </row>
+    <row r="18" spans="1:11" ht="100.8">
+      <c r="A18" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="32"/>
+    </row>
+    <row r="19" spans="1:11" ht="57.6">
+      <c r="A19" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="32"/>
+    </row>
+    <row r="20" spans="1:11" ht="57.6">
+      <c r="A20" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="32"/>
-    </row>
-    <row r="13" spans="1:10" ht="115.2">
-      <c r="A13" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="32"/>
-    </row>
-    <row r="14" spans="1:10" ht="100.8">
-      <c r="A14" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="32"/>
-    </row>
-    <row r="15" spans="1:10" ht="115.2">
-      <c r="A15" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="32"/>
-    </row>
-    <row r="16" spans="1:10" ht="115.2">
-      <c r="A16" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="32"/>
-    </row>
-    <row r="17" spans="1:10" ht="115.2">
-      <c r="A17" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="32"/>
-    </row>
-    <row r="18" spans="1:10" ht="72">
-      <c r="A18" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="B18" s="28" t="s">
+      <c r="F20" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="32"/>
+    </row>
+    <row r="21" spans="1:11" ht="57.6">
+      <c r="A21" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="57.6">
+      <c r="A22" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="57.6">
+      <c r="A23" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="F23" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="32"/>
-    </row>
-    <row r="19" spans="1:10" ht="72">
-      <c r="A19" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="B19" s="28" t="s">
+      <c r="G23" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="57.6">
+      <c r="A24" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="57.6">
+      <c r="A25" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="32"/>
-    </row>
-    <row r="20" spans="1:10" ht="72">
-      <c r="A20" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="B20" s="28" t="s">
+      <c r="G25" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="72">
+      <c r="A26" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="72">
-      <c r="A21" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="72">
-      <c r="A22" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="57.6">
-      <c r="A23" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="57.6">
-      <c r="A24" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="72">
-      <c r="A25" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="72">
-      <c r="A26" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>179</v>
-      </c>
+      <c r="B26" s="27"/>
       <c r="C26" s="33" t="s">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>236</v>
+        <v>106</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="32"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="37"/>
-    </row>
-    <row r="28" spans="1:10">
+        <v>108</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="72">
+      <c r="A27" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="32"/>
-      <c r="B28" s="33"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
-      <c r="G28" s="37"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="37"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="G10:G24">
+  <conditionalFormatting sqref="H10:H25">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:G24">
+  <conditionalFormatting sqref="H19:H25">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -4363,7 +4169,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G28" xr:uid="{D3DAC962-B0A1-4550-A348-76F18ADC62A1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H29" xr:uid="{D3DAC962-B0A1-4550-A348-76F18ADC62A1}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4375,8 +4181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57977689-3AE3-4B2E-A947-3358541BF278}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.33203125" defaultRowHeight="14.4"/>
@@ -4391,10 +4197,10 @@
     <row r="1" spans="1:9">
       <c r="A1" s="5"/>
       <c r="B1" s="11"/>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="42"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
@@ -4406,12 +4212,12 @@
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="42"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="12" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="2"/>
@@ -4421,10 +4227,10 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="42"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="14">
         <v>45516</v>
       </c>
@@ -4435,10 +4241,10 @@
     <row r="4" spans="1:9">
       <c r="A4" s="3"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="42"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="14">
         <v>41985</v>
       </c>
@@ -4450,10 +4256,10 @@
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="42"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="12"/>
       <c r="H5" s="2"/>
       <c r="I5" s="6"/>
@@ -4505,7 +4311,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>12</v>
+        <v>412</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>13</v>
@@ -4529,24 +4335,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="129.6">
+    <row r="10" spans="1:9" ht="28.8">
       <c r="A10" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>86</v>
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>418</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>87</v>
+        <v>417</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>171</v>
+        <v>420</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>172</v>
+        <v>413</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>172</v>
+        <v>413</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>23</v>
@@ -4554,49 +4360,49 @@
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:9" ht="129.6">
+    <row r="11" spans="1:9" ht="43.2">
       <c r="A11" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>89</v>
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>403</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>87</v>
+        <v>417</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>113</v>
+        <v>420</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>173</v>
+        <v>414</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>92</v>
+        <v>414</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:9" ht="115.2">
+    <row r="12" spans="1:9" ht="28.8">
       <c r="A12" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>90</v>
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>404</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>87</v>
+        <v>417</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>114</v>
+        <v>420</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>91</v>
+        <v>413</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>175</v>
+        <v>413</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>23</v>
@@ -4604,24 +4410,24 @@
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:9" ht="129.6">
+    <row r="13" spans="1:9" ht="28.8">
       <c r="A13" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>93</v>
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>405</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>87</v>
+        <v>417</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>116</v>
+        <v>420</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>115</v>
+        <v>413</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>115</v>
+        <v>413</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>23</v>
@@ -4629,24 +4435,24 @@
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:9" ht="129.6">
+    <row r="14" spans="1:9" ht="28.8">
       <c r="A14" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>94</v>
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>406</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>87</v>
+        <v>417</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>117</v>
+        <v>420</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>88</v>
+        <v>413</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>88</v>
+        <v>413</v>
       </c>
       <c r="G14" s="30" t="s">
         <v>23</v>
@@ -4654,24 +4460,24 @@
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:9" ht="129.6">
+    <row r="15" spans="1:9" ht="28.8">
       <c r="A15" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>95</v>
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>407</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>87</v>
+        <v>417</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>118</v>
+        <v>420</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>88</v>
+        <v>413</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>88</v>
+        <v>413</v>
       </c>
       <c r="G15" s="30" t="s">
         <v>23</v>
@@ -4679,24 +4485,24 @@
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
     </row>
-    <row r="16" spans="1:9" ht="115.2">
+    <row r="16" spans="1:9" ht="28.8">
       <c r="A16" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>96</v>
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>408</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>87</v>
+        <v>417</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>119</v>
+        <v>420</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>88</v>
+        <v>413</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>88</v>
+        <v>413</v>
       </c>
       <c r="G16" s="30" t="s">
         <v>23</v>
@@ -4704,24 +4510,24 @@
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
     </row>
-    <row r="17" spans="1:9" ht="129.6">
+    <row r="17" spans="1:9" ht="28.8">
       <c r="A17" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>97</v>
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>409</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>87</v>
+        <v>417</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>120</v>
+        <v>420</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>88</v>
+        <v>413</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>88</v>
+        <v>413</v>
       </c>
       <c r="G17" s="30" t="s">
         <v>23</v>
@@ -4729,24 +4535,24 @@
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
     </row>
-    <row r="18" spans="1:9" ht="129.6">
+    <row r="18" spans="1:9" ht="43.2">
       <c r="A18" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>98</v>
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>419</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>87</v>
+        <v>417</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>121</v>
+        <v>420</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>88</v>
+        <v>416</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>88</v>
+        <v>416</v>
       </c>
       <c r="G18" s="30" t="s">
         <v>23</v>
@@ -4754,47 +4560,47 @@
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
     </row>
-    <row r="19" spans="1:9" ht="115.2">
+    <row r="19" spans="1:9" ht="28.8">
       <c r="A19" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>122</v>
+        <v>186</v>
+      </c>
+      <c r="B19" t="s">
+        <v>410</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>87</v>
+        <v>417</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>123</v>
+        <v>420</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>99</v>
+        <v>413</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>99</v>
+        <v>413</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="115.2">
+    <row r="20" spans="1:9" ht="42" customHeight="1">
       <c r="A20" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>124</v>
+        <v>187</v>
+      </c>
+      <c r="B20" t="s">
+        <v>411</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>87</v>
+        <v>417</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>125</v>
+        <v>420</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>100</v>
+        <v>415</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>100</v>
+        <v>415</v>
       </c>
       <c r="G20" s="30" t="s">
         <v>23</v>
@@ -4802,22 +4608,19 @@
     </row>
     <row r="21" spans="1:9" ht="115.2">
       <c r="A21" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G21" s="30" t="s">
         <v>23</v>
@@ -4825,22 +4628,22 @@
     </row>
     <row r="22" spans="1:9" ht="115.2">
       <c r="A22" s="27" t="s">
-        <v>284</v>
+        <v>189</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="G22" s="30" t="s">
         <v>23</v>
@@ -4848,22 +4651,22 @@
     </row>
     <row r="23" spans="1:9" ht="129.6">
       <c r="A23" s="27" t="s">
-        <v>285</v>
+        <v>190</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>23</v>
@@ -4871,22 +4674,22 @@
     </row>
     <row r="24" spans="1:9" ht="115.2">
       <c r="A24" s="27" t="s">
-        <v>459</v>
+        <v>299</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>303</v>
+        <v>208</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="G24" s="30" t="s">
         <v>23</v>
@@ -4894,22 +4697,22 @@
     </row>
     <row r="25" spans="1:9" ht="144">
       <c r="A25" s="27" t="s">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>305</v>
+        <v>210</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>306</v>
+        <v>211</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>307</v>
+        <v>212</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>307</v>
+        <v>212</v>
       </c>
       <c r="G25" s="30" t="s">
         <v>23</v>
@@ -4917,22 +4720,22 @@
     </row>
     <row r="26" spans="1:9" ht="100.8">
       <c r="A26" s="27" t="s">
-        <v>461</v>
+        <v>301</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>308</v>
+        <v>213</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>309</v>
+        <v>214</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>310</v>
+        <v>215</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>310</v>
+        <v>215</v>
       </c>
       <c r="G26" s="30" t="s">
         <v>23</v>
@@ -4940,22 +4743,22 @@
     </row>
     <row r="27" spans="1:9" ht="100.8">
       <c r="A27" s="27" t="s">
-        <v>462</v>
+        <v>302</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>241</v>
+        <v>146</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>311</v>
+        <v>216</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>312</v>
+        <v>217</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>312</v>
+        <v>217</v>
       </c>
       <c r="G27" s="30" t="s">
         <v>23</v>
@@ -4963,22 +4766,22 @@
     </row>
     <row r="28" spans="1:9" ht="100.8">
       <c r="A28" s="27" t="s">
-        <v>463</v>
+        <v>303</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>266</v>
+        <v>171</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>313</v>
+        <v>218</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>314</v>
+        <v>219</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>314</v>
+        <v>219</v>
       </c>
       <c r="G28" s="30" t="s">
         <v>23</v>
@@ -4986,22 +4789,22 @@
     </row>
     <row r="29" spans="1:9" ht="100.8">
       <c r="A29" s="27" t="s">
-        <v>464</v>
+        <v>304</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>243</v>
+        <v>148</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>315</v>
+        <v>220</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>316</v>
+        <v>221</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>317</v>
+        <v>222</v>
       </c>
       <c r="G29" s="30" t="s">
         <v>23</v>
@@ -5009,22 +4812,22 @@
     </row>
     <row r="30" spans="1:9" ht="100.8">
       <c r="A30" s="27" t="s">
-        <v>465</v>
+        <v>305</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>318</v>
+        <v>223</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>319</v>
+        <v>224</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>320</v>
+        <v>225</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>320</v>
+        <v>225</v>
       </c>
       <c r="G30" s="30" t="s">
         <v>23</v>
@@ -5032,22 +4835,22 @@
     </row>
     <row r="31" spans="1:9" ht="100.8">
       <c r="A31" s="27" t="s">
-        <v>466</v>
+        <v>306</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>321</v>
+        <v>226</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>322</v>
+        <v>227</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>323</v>
+        <v>228</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>323</v>
+        <v>228</v>
       </c>
       <c r="G31" s="30" t="s">
         <v>23</v>
@@ -5055,45 +4858,45 @@
     </row>
     <row r="32" spans="1:9" ht="100.8">
       <c r="A32" s="27" t="s">
-        <v>467</v>
+        <v>307</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>324</v>
+        <v>229</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>333</v>
+        <v>238</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>325</v>
+        <v>230</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="115.2">
       <c r="A33" s="27" t="s">
-        <v>468</v>
+        <v>308</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>301</v>
+        <v>206</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>328</v>
+        <v>233</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>327</v>
+        <v>232</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>327</v>
+        <v>232</v>
       </c>
       <c r="G33" s="30" t="s">
         <v>23</v>
@@ -5101,22 +4904,22 @@
     </row>
     <row r="34" spans="1:7" ht="129.6">
       <c r="A34" s="27" t="s">
-        <v>469</v>
+        <v>309</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>329</v>
+        <v>234</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>330</v>
+        <v>235</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>331</v>
+        <v>236</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>331</v>
+        <v>236</v>
       </c>
       <c r="G34" s="30" t="s">
         <v>23</v>
@@ -5124,22 +4927,22 @@
     </row>
     <row r="35" spans="1:7" ht="144">
       <c r="A35" s="27" t="s">
-        <v>470</v>
+        <v>310</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>332</v>
+        <v>237</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>334</v>
+        <v>239</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>335</v>
+        <v>240</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>335</v>
+        <v>240</v>
       </c>
       <c r="G35" s="30" t="s">
         <v>23</v>
@@ -5147,22 +4950,22 @@
     </row>
     <row r="36" spans="1:7" ht="100.8">
       <c r="A36" s="27" t="s">
-        <v>471</v>
+        <v>311</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>336</v>
+        <v>241</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>337</v>
+        <v>242</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>338</v>
+        <v>243</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>338</v>
+        <v>243</v>
       </c>
       <c r="G36" s="30" t="s">
         <v>23</v>
@@ -5206,10 +5009,10 @@
     <row r="1" spans="1:9">
       <c r="A1" s="5"/>
       <c r="B1" s="11"/>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="42"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
@@ -5221,12 +5024,12 @@
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="42"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="12" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="2"/>
@@ -5236,10 +5039,10 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="42"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="14">
         <v>45516</v>
       </c>
@@ -5250,10 +5053,10 @@
     <row r="4" spans="1:9">
       <c r="A4" s="3"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="42"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="14">
         <v>41985</v>
       </c>
@@ -5265,10 +5068,10 @@
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="42"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="12"/>
       <c r="H5" s="2"/>
       <c r="I5" s="6"/>
@@ -5346,22 +5149,22 @@
     </row>
     <row r="10" spans="1:9" ht="129.6">
       <c r="A10" s="27" t="s">
-        <v>349</v>
+        <v>254</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>249</v>
+        <v>154</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>249</v>
+        <v>154</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>23</v>
@@ -5371,22 +5174,22 @@
     </row>
     <row r="11" spans="1:9" ht="144">
       <c r="A11" s="27" t="s">
-        <v>350</v>
+        <v>255</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>242</v>
+        <v>147</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>251</v>
+        <v>156</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>23</v>
@@ -5396,47 +5199,47 @@
     </row>
     <row r="12" spans="1:9" ht="115.2">
       <c r="A12" s="27" t="s">
-        <v>351</v>
+        <v>256</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>243</v>
+        <v>148</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>253</v>
+        <v>158</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>254</v>
+        <v>159</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>255</v>
+        <v>160</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" ht="115.2">
       <c r="A13" s="27" t="s">
-        <v>352</v>
+        <v>257</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>244</v>
+        <v>149</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>256</v>
+        <v>161</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>257</v>
+        <v>162</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>257</v>
+        <v>162</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>23</v>
@@ -5446,22 +5249,22 @@
     </row>
     <row r="14" spans="1:9" ht="115.2">
       <c r="A14" s="27" t="s">
-        <v>286</v>
+        <v>191</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>245</v>
+        <v>150</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>258</v>
+        <v>163</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>259</v>
+        <v>164</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>259</v>
+        <v>164</v>
       </c>
       <c r="G14" s="30" t="s">
         <v>23</v>
@@ -5471,22 +5274,22 @@
     </row>
     <row r="15" spans="1:9" ht="115.2">
       <c r="A15" s="27" t="s">
-        <v>287</v>
+        <v>192</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>246</v>
+        <v>151</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>260</v>
+        <v>165</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>262</v>
+        <v>167</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>262</v>
+        <v>167</v>
       </c>
       <c r="G15" s="30" t="s">
         <v>23</v>
@@ -5496,22 +5299,22 @@
     </row>
     <row r="16" spans="1:9" ht="115.2">
       <c r="A16" s="27" t="s">
-        <v>288</v>
+        <v>193</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>247</v>
+        <v>152</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>261</v>
+        <v>166</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>263</v>
+        <v>168</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>263</v>
+        <v>168</v>
       </c>
       <c r="G16" s="30" t="s">
         <v>23</v>
@@ -5521,22 +5324,22 @@
     </row>
     <row r="17" spans="1:9" ht="115.2">
       <c r="A17" s="27" t="s">
-        <v>289</v>
+        <v>194</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>241</v>
+        <v>146</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>264</v>
+        <v>169</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>265</v>
+        <v>170</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>265</v>
+        <v>170</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>23</v>
@@ -5544,22 +5347,22 @@
     </row>
     <row r="18" spans="1:9" ht="115.2">
       <c r="A18" s="27" t="s">
-        <v>290</v>
+        <v>195</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>266</v>
+        <v>171</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>267</v>
+        <v>172</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>249</v>
+        <v>154</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>249</v>
+        <v>154</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>23</v>
@@ -5569,22 +5372,22 @@
     </row>
     <row r="19" spans="1:9" ht="115.2">
       <c r="A19" s="27" t="s">
-        <v>339</v>
+        <v>244</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>268</v>
+        <v>173</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>249</v>
+        <v>154</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>249</v>
+        <v>154</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>23</v>
@@ -5592,22 +5395,22 @@
     </row>
     <row r="20" spans="1:9" ht="158.4">
       <c r="A20" s="27" t="s">
-        <v>340</v>
+        <v>245</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>248</v>
+        <v>153</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>269</v>
+        <v>174</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>270</v>
+        <v>175</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>270</v>
+        <v>175</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>23</v>
@@ -5615,22 +5418,22 @@
     </row>
     <row r="21" spans="1:9" ht="129.6">
       <c r="A21" s="27" t="s">
-        <v>341</v>
+        <v>246</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>271</v>
+        <v>176</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>272</v>
+        <v>177</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>273</v>
+        <v>178</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>23</v>
@@ -5638,22 +5441,22 @@
     </row>
     <row r="22" spans="1:9" ht="144">
       <c r="A22" s="27" t="s">
-        <v>342</v>
+        <v>247</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>276</v>
+        <v>181</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>277</v>
+        <v>182</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>277</v>
+        <v>182</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>23</v>
@@ -5661,22 +5464,22 @@
     </row>
     <row r="23" spans="1:9" ht="115.2">
       <c r="A23" s="27" t="s">
-        <v>343</v>
+        <v>248</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>278</v>
+        <v>183</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>279</v>
+        <v>184</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>280</v>
+        <v>185</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>280</v>
+        <v>185</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>23</v>
@@ -5715,7 +5518,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.5546875" defaultRowHeight="14.4"/>
@@ -5734,10 +5537,10 @@
     <row r="1" spans="1:9">
       <c r="A1" s="5"/>
       <c r="B1" s="11"/>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="42"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
@@ -5749,12 +5552,12 @@
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="42"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="12" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="2"/>
@@ -5764,10 +5567,10 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="42"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="14">
         <v>45516</v>
       </c>
@@ -5778,10 +5581,10 @@
     <row r="4" spans="1:9">
       <c r="A4" s="3"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="42"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="14">
         <v>41985</v>
       </c>
@@ -5793,10 +5596,10 @@
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="42"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="12"/>
       <c r="H5" s="2"/>
       <c r="I5" s="6"/>
@@ -5874,22 +5677,22 @@
     </row>
     <row r="10" spans="1:9" ht="100.8">
       <c r="A10" s="27" t="s">
-        <v>344</v>
+        <v>249</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>303</v>
+        <v>208</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>23</v>
@@ -5899,22 +5702,22 @@
     </row>
     <row r="11" spans="1:9" ht="115.2">
       <c r="A11" s="27" t="s">
-        <v>345</v>
+        <v>250</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>305</v>
+        <v>210</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>306</v>
+        <v>211</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>307</v>
+        <v>212</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>307</v>
+        <v>212</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>23</v>
@@ -5924,22 +5727,22 @@
     </row>
     <row r="12" spans="1:9" ht="86.4">
       <c r="A12" s="27" t="s">
-        <v>346</v>
+        <v>251</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>308</v>
+        <v>213</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>309</v>
+        <v>214</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>310</v>
+        <v>215</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>310</v>
+        <v>215</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>23</v>
@@ -5949,22 +5752,22 @@
     </row>
     <row r="13" spans="1:9" ht="86.4">
       <c r="A13" s="27" t="s">
-        <v>347</v>
+        <v>252</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>241</v>
+        <v>146</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>311</v>
+        <v>216</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>312</v>
+        <v>217</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>312</v>
+        <v>217</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>23</v>
@@ -5974,22 +5777,22 @@
     </row>
     <row r="14" spans="1:9" ht="86.4">
       <c r="A14" s="27" t="s">
-        <v>291</v>
+        <v>196</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>266</v>
+        <v>171</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>313</v>
+        <v>218</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>314</v>
+        <v>219</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>314</v>
+        <v>219</v>
       </c>
       <c r="G14" s="30" t="s">
         <v>23</v>
@@ -5999,22 +5802,22 @@
     </row>
     <row r="15" spans="1:9" ht="86.4">
       <c r="A15" s="27" t="s">
-        <v>292</v>
+        <v>197</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>243</v>
+        <v>148</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>315</v>
+        <v>220</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>316</v>
+        <v>221</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>317</v>
+        <v>222</v>
       </c>
       <c r="G15" s="30" t="s">
         <v>23</v>
@@ -6024,22 +5827,22 @@
     </row>
     <row r="16" spans="1:9" ht="86.4">
       <c r="A16" s="27" t="s">
-        <v>293</v>
+        <v>198</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>318</v>
+        <v>223</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>319</v>
+        <v>224</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>320</v>
+        <v>225</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>320</v>
+        <v>225</v>
       </c>
       <c r="G16" s="30" t="s">
         <v>23</v>
@@ -6049,22 +5852,22 @@
     </row>
     <row r="17" spans="1:9" ht="86.4">
       <c r="A17" s="27" t="s">
-        <v>294</v>
+        <v>199</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>321</v>
+        <v>226</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>322</v>
+        <v>227</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>323</v>
+        <v>228</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>323</v>
+        <v>228</v>
       </c>
       <c r="G17" s="30" t="s">
         <v>23</v>
@@ -6074,47 +5877,47 @@
     </row>
     <row r="18" spans="1:9" ht="86.4">
       <c r="A18" s="27" t="s">
-        <v>295</v>
+        <v>200</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>324</v>
+        <v>229</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>333</v>
+        <v>238</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>325</v>
+        <v>230</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
     </row>
     <row r="19" spans="1:9" ht="100.8">
       <c r="A19" s="27" t="s">
-        <v>296</v>
+        <v>201</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>301</v>
+        <v>206</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>328</v>
+        <v>233</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>327</v>
+        <v>232</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>327</v>
+        <v>232</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>23</v>
@@ -6122,22 +5925,22 @@
     </row>
     <row r="20" spans="1:9" ht="100.8">
       <c r="A20" s="27" t="s">
-        <v>297</v>
+        <v>202</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>329</v>
+        <v>234</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>330</v>
+        <v>235</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>331</v>
+        <v>236</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>331</v>
+        <v>236</v>
       </c>
       <c r="G20" s="30" t="s">
         <v>23</v>
@@ -6145,22 +5948,22 @@
     </row>
     <row r="21" spans="1:9" ht="102.6" customHeight="1">
       <c r="A21" s="27" t="s">
-        <v>298</v>
+        <v>203</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>332</v>
+        <v>237</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>334</v>
+        <v>239</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>335</v>
+        <v>240</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>335</v>
+        <v>240</v>
       </c>
       <c r="G21" s="30" t="s">
         <v>23</v>
@@ -6168,22 +5971,22 @@
     </row>
     <row r="22" spans="1:9" ht="86.4">
       <c r="A22" s="27" t="s">
-        <v>299</v>
+        <v>204</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>336</v>
+        <v>241</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>337</v>
+        <v>242</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>338</v>
+        <v>243</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>338</v>
+        <v>243</v>
       </c>
       <c r="G22" s="30" t="s">
         <v>23</v>
@@ -6209,10 +6012,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09833CCF-4195-4195-AD88-17A098AA486C}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.33203125" defaultRowHeight="14.4"/>
@@ -6243,7 +6046,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>348</v>
+        <v>253</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="2"/>
@@ -6322,19 +6125,19 @@
     </row>
     <row r="9" spans="1:8" ht="30.6">
       <c r="A9" s="40" t="s">
-        <v>353</v>
+        <v>258</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>354</v>
+        <v>259</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>355</v>
+        <v>260</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>356</v>
+        <v>261</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>357</v>
+        <v>262</v>
       </c>
       <c r="F9" s="41" t="s">
         <v>17</v>
@@ -6347,402 +6150,243 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>360</v>
+      <c r="A10" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>265</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>361</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>368</v>
+        <v>266</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>273</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="E11" s="44"/>
+        <v>267</v>
+      </c>
+      <c r="E11" s="46"/>
       <c r="F11" s="30"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="E12" s="44"/>
+        <v>268</v>
+      </c>
+      <c r="E12" s="46"/>
       <c r="F12" s="30"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
     </row>
     <row r="13" spans="1:8" ht="28.8">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="30"/>
+        <v>269</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="33" t="s">
-        <v>365</v>
-      </c>
-      <c r="E14" s="44"/>
+        <v>270</v>
+      </c>
+      <c r="E14" s="46"/>
       <c r="F14" s="30"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="E15" s="44"/>
+        <v>271</v>
+      </c>
+      <c r="E15" s="46"/>
       <c r="F15" s="30"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="E16" s="44"/>
+        <v>272</v>
+      </c>
+      <c r="E16" s="46"/>
       <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" ht="43.2">
       <c r="A17" s="33" t="s">
-        <v>369</v>
+        <v>428</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>370</v>
+        <v>275</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>371</v>
+        <v>276</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>372</v>
+        <v>277</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="F17" s="30"/>
-    </row>
-    <row r="18" spans="1:6" ht="43.2">
+        <v>421</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" customHeight="1">
       <c r="A18" s="33" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>375</v>
+        <v>279</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>376</v>
+        <v>280</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>377</v>
+        <v>281</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="F18" s="30"/>
+        <v>422</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="43.2">
       <c r="A19" s="33" t="s">
-        <v>379</v>
+        <v>278</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>380</v>
+        <v>283</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>381</v>
+        <v>284</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>382</v>
+        <v>285</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>383</v>
+        <v>423</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="43.2">
       <c r="A20" s="33" t="s">
-        <v>384</v>
+        <v>282</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>385</v>
+        <v>286</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>386</v>
+        <v>287</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>387</v>
+        <v>288</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>388</v>
+        <v>424</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="43.2">
       <c r="A21" s="33" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>390</v>
+        <v>289</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>391</v>
+        <v>290</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>392</v>
+        <v>291</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="43.2">
+        <v>425</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.8">
       <c r="A22" s="33" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>395</v>
+        <v>292</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>396</v>
+        <v>293</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>397</v>
+        <v>294</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="43.2">
+        <v>426</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8">
       <c r="A23" s="33" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>400</v>
+        <v>296</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>401</v>
+        <v>297</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>402</v>
+        <v>298</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="43.2">
-      <c r="A24" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>406</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>407</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="43.2">
-      <c r="A25" s="33" t="s">
-        <v>409</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>410</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>411</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>412</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="43.2">
-      <c r="A26" s="33" t="s">
-        <v>414</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>415</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>416</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="43.2">
-      <c r="A27" s="33" t="s">
-        <v>419</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>421</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>422</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="43.2">
-      <c r="A28" s="33" t="s">
-        <v>424</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>425</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>426</v>
-      </c>
-      <c r="D28" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="E28" s="33" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="43.2">
-      <c r="A29" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>432</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="43.2">
-      <c r="A30" s="33" t="s">
-        <v>434</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>435</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>436</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>437</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="43.2">
-      <c r="A31" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>440</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>441</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>442</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="43.2">
-      <c r="A32" s="33" t="s">
-        <v>444</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>445</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>447</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="43.2">
-      <c r="A33" s="33" t="s">
-        <v>449</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>450</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="43.2">
-      <c r="A34" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>455</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>456</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>457</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>458</v>
-      </c>
+      <c r="F23" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6751,138 +6395,12 @@
     <mergeCell ref="C10:C16"/>
     <mergeCell ref="E10:E16"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F18" xr:uid="{48F02694-4A7F-4004-BB0C-4BD712CDCF97}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F23" xr:uid="{48F02694-4A7F-4004-BB0C-4BD712CDCF97}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11071694-BD90-4F3C-9D3F-4C0688089A0D}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="28.8">
-      <c r="A1" s="45" t="s">
-        <v>472</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>354</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>473</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="115.2">
-      <c r="A2" s="33" t="s">
-        <v>475</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>476</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>477</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="86.4">
-      <c r="A3" s="33" t="s">
-        <v>479</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>480</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>481</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="72">
-      <c r="A4" s="33" t="s">
-        <v>483</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>485</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="86.4">
-      <c r="A5" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>488</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>489</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="86.4">
-      <c r="A6" s="33" t="s">
-        <v>491</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>492</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>493</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="57.6">
-      <c r="A7" s="33" t="s">
-        <v>495</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="57.6">
-      <c r="A8" s="33" t="s">
-        <v>499</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>500</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>501</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>502</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>